--- a/Data_validation.xlsx
+++ b/Data_validation.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaagu\surfdrive\thesis_per_chapter\chap04_asa\results\asa_supplementary_information\v_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9828DE11-0C7D-4748-AB44-E4872401F435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF7BFC-C3B2-4AB3-B8C2-F8031BA5FBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
-    <sheet name="global_nas" sheetId="3" r:id="rId2"/>
-    <sheet name="country_nas" sheetId="7" r:id="rId3"/>
-    <sheet name="steel_nas" sheetId="9" r:id="rId4"/>
-    <sheet name="data_source_exio" sheetId="6" r:id="rId5"/>
+    <sheet name="data_source_exio" sheetId="6" r:id="rId2"/>
+    <sheet name="global_nas" sheetId="3" r:id="rId3"/>
+    <sheet name="country_nas" sheetId="7" r:id="rId4"/>
+    <sheet name="steel_nas" sheetId="9" r:id="rId5"/>
+    <sheet name="data_resolution" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="132">
   <si>
     <t>Source</t>
   </si>
@@ -436,6 +437,27 @@
   <si>
     <t>Müller et al. (2011)</t>
   </si>
+  <si>
+    <t>Number of countries and world regions</t>
+  </si>
+  <si>
+    <t>Number of sectors/industries</t>
+  </si>
+  <si>
+    <t>Number of material categories</t>
+  </si>
+  <si>
+    <t>Number of years</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A table comparing data resolution of EXIOBASE and other studies with net addtions to in-use stocks </t>
+  </si>
+  <si>
+    <t>data_resolution</t>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +468,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +561,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -617,7 +646,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,6 +774,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -760,8 +791,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1168,14 +1203,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04DFE90-3971-4585-BB23-7A308E36B55E}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1227,54 +1263,54 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
@@ -1301,8 +1337,8 @@
         <v>106</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="16">
-        <v>43872</v>
+      <c r="C12" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1390,6 +1426,20 @@
       <c r="D18" s="1" t="s">
         <v>104</v>
       </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1402,1700 +1452,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122F672B-0918-437F-BC03-67C862FF8E52}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C3" s="37">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="37">
-        <v>2011</v>
-      </c>
-      <c r="E3" s="38">
-        <v>2010</v>
-      </c>
-      <c r="F3" s="37">
-        <v>2010</v>
-      </c>
-      <c r="G3" s="37">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="37">
-        <v>2008</v>
-      </c>
-      <c r="I3" s="37">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="40">
-        <f>SUM(data_source_exio!B43:AW43)</f>
-        <v>1.3362726056195031</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="40">
-        <f>SUM(data_source_exio!B44:AW44)</f>
-        <v>9.5800039885469548E-2</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="40">
-        <f>SUM(data_source_exio!B45:AW45)</f>
-        <v>0.94447295684679344</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0.95</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="40">
-        <f>SUM(data_source_exio!B46:AW46)</f>
-        <v>23.295412943085072</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="40">
-        <v>28.7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>25.13</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="41">
-        <f>SUM(data_source_exio!B34:AW34)</f>
-        <v>0.87737004498988747</v>
-      </c>
-      <c r="C9" s="40">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="40">
-        <v>1.2</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="41">
-        <f>SUM(data_source_exio!B36:AW36)</f>
-        <v>2.4893390515546187E-2</v>
-      </c>
-      <c r="C10" s="40">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="40">
-        <v>0.02</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="41">
-        <f>SUM(data_source_exio!B38:AW38)</f>
-        <v>1.0559665909417613E-2</v>
-      </c>
-      <c r="C11" s="40">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="40">
-        <v>0.01</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="41">
-        <f>SUM(data_source_exio!B48:AW48)</f>
-        <v>3.1649855431941945E-2</v>
-      </c>
-      <c r="C12" s="40">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="41">
-        <f>SUM(data_source_exio!B47:AW47)</f>
-        <v>1.3121318536865474</v>
-      </c>
-      <c r="C13" s="40">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="40">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="41">
-        <f>SUM(data_source_exio!C32:AW32)</f>
-        <v>9.5587635453902323E-2</v>
-      </c>
-      <c r="C14" s="40">
-        <v>0.13</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="40">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="43">
-        <f>(D5-$B$5)/$B$5</f>
-        <v>-0.89523095855497581</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="43">
-        <f t="shared" ref="D18" si="0">(D6-$B$6)/$B$6</f>
-        <v>1.0876818030462529</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="43">
-        <f t="shared" ref="D19" si="1">(D7-$B$7)/$B$7</f>
-        <v>5.8519866695379346E-3</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="43">
-        <f t="shared" ref="D20:E20" si="2">(D8-$B$8)/$B$8</f>
-        <v>0.23200220018075299</v>
-      </c>
-      <c r="E20" s="43">
-        <f t="shared" si="2"/>
-        <v>7.8753146011927608E-2</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="43">
-        <f>(C9-$B$9)/$B$9</f>
-        <v>-3.1195554425616334E-2</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="43">
-        <f t="shared" ref="E21:H21" si="3">(E9-$B$9)/$B$9</f>
-        <v>-9.9581750583808054E-2</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="43">
-        <f t="shared" si="3"/>
-        <v>0.36772392316383573</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="43">
-        <f t="shared" ref="C22:E22" si="4">(C10-$B$10)/$B$10</f>
-        <v>0.20513917062702569</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="43">
-        <f t="shared" si="4"/>
-        <v>0.20513917062702569</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="43">
-        <f>(G10-$B$10)/$B$10</f>
-        <v>-0.19657388624864949</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="43">
-        <f>(C11-$B$11)/$B$11</f>
-        <v>-5.3000342455766195E-2</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="43">
-        <f t="shared" ref="E23:F23" si="5">(E11-$B$11)/$B$11</f>
-        <v>-5.3000342455766195E-2</v>
-      </c>
-      <c r="F23" s="43">
-        <f t="shared" si="5"/>
-        <v>-5.3000342455766195E-2</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="43">
-        <f>(C12-$B$12)/$B$12</f>
-        <v>0.57978604697001435</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="43">
-        <f t="shared" ref="E24" si="6">(E12-$B$12)/$B$12</f>
-        <v>-5.2128371817991452E-2</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="43">
-        <f t="shared" ref="C25:I25" si="7">(C13-$B$13)/$B$13</f>
-        <v>-0.89330340574641343</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="43">
-        <f t="shared" si="7"/>
-        <v>-0.90092459105024092</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="43">
-        <f t="shared" si="7"/>
-        <v>-0.93140933226555145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="43">
-        <f>(C14-$B$14)/$B$14</f>
-        <v>0.36000853439557295</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="43">
-        <f t="shared" ref="C26:I26" si="8">(E14-$B$14)/$B$14</f>
-        <v>0.25539249328822111</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="43">
-        <f t="shared" si="8"/>
-        <v>-0.1630716711411859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{7736FF86-1B1D-4FBD-8B3D-6A06C87126F9}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F396A526-1C9A-4398-94FF-247B49BEB261}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{72724038-CA4D-49B8-943E-81B21C0AD984}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{E36F754C-6BFA-40BA-86ED-CD52C0882617}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{FCC7FA3D-8E68-45BA-8DF9-CA90ABFE71A1}"/>
-    <hyperlink ref="H2" r:id="rId6" xr:uid="{A035E7CD-CC18-45E1-9BE9-46DEAD5C766E}"/>
-    <hyperlink ref="I2" r:id="rId7" xr:uid="{A40700CC-7652-4933-98C3-401366C4A056}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F7ECFB-BBF9-4C71-90EA-4916195C8E2B}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C3" s="37">
-        <v>2014</v>
-      </c>
-      <c r="D3" s="44">
-        <v>2011</v>
-      </c>
-      <c r="E3" s="38">
-        <v>2010</v>
-      </c>
-      <c r="F3" s="37">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="35">
-        <f>SUM(data_source_exio!B41:AW41)</f>
-        <v>25.671958545436841</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="10">
-        <v>29.3</v>
-      </c>
-      <c r="E5" s="11">
-        <v>26.25</v>
-      </c>
-      <c r="F5" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="45">
-        <f>SUM(data_source_exio!B41:AC41)-data_source_exio!O41</f>
-        <v>2.6490734818103578</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="39">
-        <f>3.5-1.7</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="45">
-        <f>SUM(data_source_exio!B41:AC41)</f>
-        <v>2.6686224049862917</v>
-      </c>
-      <c r="C7" s="45">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="40">
-        <f>data_source_exio!B41</f>
-        <v>7.2770104292697355E-2</v>
-      </c>
-      <c r="C8" s="40">
-        <v>0.11</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="40">
-        <f>data_source_exio!C41</f>
-        <v>8.2196318696433401E-2</v>
-      </c>
-      <c r="C9" s="40">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="40">
-        <f>data_source_exio!F41</f>
-        <v>6.0847203970137945E-2</v>
-      </c>
-      <c r="C10" s="40">
-        <v>0.08</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="40">
-        <f>data_source_exio!K41</f>
-        <v>7.0852095522572378E-2</v>
-      </c>
-      <c r="C11" s="40">
-        <v>0.06</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="40">
-        <f>data_source_exio!J41</f>
-        <v>0.20061671251982963</v>
-      </c>
-      <c r="C12" s="40">
-        <v>0.15</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="40">
-        <f>data_source_exio!L41</f>
-        <v>0.28872649434985376</v>
-      </c>
-      <c r="C13" s="40">
-        <v>0.31</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="40">
-        <f>data_source_exio!G41</f>
-        <v>0.4353085741321564</v>
-      </c>
-      <c r="C14" s="40">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="40">
-        <f>data_source_exio!Q41</f>
-        <v>0.26146373949739332</v>
-      </c>
-      <c r="C15" s="40">
-        <v>0.22</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="43">
-        <f>(D5-$B$5)/$B$5</f>
-        <v>0.14132312687175322</v>
-      </c>
-      <c r="E17" s="43">
-        <f t="shared" ref="E17" si="0">(E5-$B$5)/$B$5</f>
-        <v>2.2516453255410289E-2</v>
-      </c>
-      <c r="F17" s="43">
-        <f>(F5-$B$5)/$B$5</f>
-        <v>1.2778201319644477E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="43">
-        <f t="shared" ref="F18" si="1">(F6-$B$6)/$B$6</f>
-        <v>-0.32051714972817857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="43">
-        <f>(C7-$B$7)/$B$7</f>
-        <v>-0.13813209553270817</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="43">
-        <f t="shared" ref="C20" si="2">(C8-$B$8)/$B$8</f>
-        <v>0.51160976157950555</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="43">
-        <f t="shared" ref="C21" si="3">(C9-$B$9)/$B$9</f>
-        <v>-0.27004030166373533</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="43">
-        <f>(C10-$B$10)/$B$10</f>
-        <v>0.31476871212129481</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="43">
-        <f t="shared" ref="C23" si="4">(C11-$B$11)/$B$11</f>
-        <v>-0.15316548427442164</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="43">
-        <f t="shared" ref="C24" si="5">(C12-$B$12)/$B$12</f>
-        <v>-0.25230556260274928</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="43">
-        <f t="shared" ref="C25" si="6">(C13-$B$13)/$B$13</f>
-        <v>7.3680476390119043E-2</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="43">
-        <f t="shared" ref="C26" si="7">(C14-$B$14)/$B$14</f>
-        <v>0.30941597264967324</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="43">
-        <f>(C15-$B$15)/$B$15</f>
-        <v>-0.15858313499645596</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{CC2DC926-7BE1-4447-8EFB-AA7D7470D938}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{58447263-CD58-4AC4-AC5D-53C1016A48CE}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{C55297CB-206D-4109-94A4-C1F1A79612D5}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{1CB54501-8AD2-4151-BB62-3B50A8481955}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA87B49-31AC-49DD-B625-07F9C287002A}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-    </row>
-    <row r="3" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D3" s="37">
-        <v>2011</v>
-      </c>
-      <c r="E3" s="37">
-        <v>2008</v>
-      </c>
-      <c r="F3" s="38">
-        <v>2010</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="12">
-        <f>SUM(data_source_exio!B34:AW34)</f>
-        <v>0.87737004498988747</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="40">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="40">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0.79</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="13">
-        <f>data_source_exio!AM34</f>
-        <v>5.0155662070130993E-3</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6.6568627200000278E-3</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="31">
-        <f>data_source_exio!AI34</f>
-        <v>6.0168215977828409E-3</v>
-      </c>
-      <c r="C8" s="13">
-        <v>5.32021924500003E-3</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="13">
-        <f>data_source_exio!L34</f>
-        <v>7.713337996496249E-3</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1.2130435391999954E-2</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="13">
-        <f>data_source_exio!AN34</f>
-        <v>1.4265299478070519E-2</v>
-      </c>
-      <c r="C10" s="13">
-        <v>5.2898021999999961E-2</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="13">
-        <f>data_source_exio!AC34</f>
-        <v>3.6104789970925395E-3</v>
-      </c>
-      <c r="C11" s="13">
-        <v>4.7716952739999307E-3</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="13">
-        <f>data_source_exio!AH34</f>
-        <v>3.2669104108050809E-2</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2.9551659899999895E-2</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="43">
-        <f>(D6-$B$6)/$B$6</f>
-        <v>-3.1195554425616334E-2</v>
-      </c>
-      <c r="E14" s="43">
-        <f>(E6-$B$6)/$B$6</f>
-        <v>0.36772392316383573</v>
-      </c>
-      <c r="F14" s="43">
-        <f t="shared" ref="F14" si="0">(F6-$B$6)/$B$6</f>
-        <v>-9.9581750583808054E-2</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="43">
-        <f t="shared" ref="C15" si="1">(C7-$B$7)/$B$7</f>
-        <v>0.32724052384992114</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="43">
-        <f>(C8-$B$8)/$B$8</f>
-        <v>-0.11577580313159098</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="43">
-        <f t="shared" ref="C17" si="2">(C9-$B$9)/$B$9</f>
-        <v>0.57265705165651393</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="43">
-        <f>(C10-$B$10)/$B$10</f>
-        <v>2.7081606370281954</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="43">
-        <f t="shared" ref="C19" si="3">(C11-$B$11)/$B$11</f>
-        <v>0.32162388365712691</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="43">
-        <f t="shared" ref="C20" si="4">(C12-$B$12)/$B$12</f>
-        <v>-9.5424845375011877E-2</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0C49D8CC-8817-4889-9B94-95F7772588B5}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{A196BC63-2E18-47D4-B477-F70CD5D66B05}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{55B79707-15E1-4917-8E6B-B09AC9C42446}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{8091FDB0-7524-44E6-B9CC-B3EB13B643E4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84A002E-80D1-4B50-A33C-3BB51E093CAC}">
   <dimension ref="A1:AX49"/>
   <sheetViews>
@@ -3149,58 +1505,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
@@ -3356,148 +1712,148 @@
       <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="53">
         <v>94426.120804853126</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="53">
         <v>253580.36161696931</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="53">
         <v>51378.983619413571</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="53">
         <v>2953.273024500822</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="53">
         <v>82908.913433415044</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="53">
         <v>1483449.7785193231</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="53">
         <v>51636.872442338827</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="53">
         <v>11481.689319155341</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="53">
         <v>310496.19640123652</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="53">
         <v>51140.752172971857</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="53">
         <v>573865.94444782939</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="53">
         <v>157546.57514274539</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="53">
         <v>38506.513838127386</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="53">
         <v>29137.294997457389</v>
       </c>
-      <c r="P3" s="58">
+      <c r="P3" s="53">
         <v>63803.780546812151</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="53">
         <v>734061.50876056612</v>
       </c>
-      <c r="R3" s="58">
+      <c r="R3" s="53">
         <v>20738.666043343001</v>
       </c>
-      <c r="S3" s="58">
+      <c r="S3" s="53">
         <v>5671.7844938417657</v>
       </c>
-      <c r="T3" s="58">
+      <c r="T3" s="53">
         <v>8337.9265010295221</v>
       </c>
-      <c r="U3" s="58">
+      <c r="U3" s="53">
         <v>1223.4447966018481</v>
       </c>
-      <c r="V3" s="58">
+      <c r="V3" s="53">
         <v>248765.29053790489</v>
       </c>
-      <c r="W3" s="58">
+      <c r="W3" s="53">
         <v>179406.6089069898</v>
       </c>
-      <c r="X3" s="58">
+      <c r="X3" s="53">
         <v>90816.191526048729</v>
       </c>
-      <c r="Y3" s="58">
+      <c r="Y3" s="53">
         <v>80114.008703677886</v>
       </c>
-      <c r="Z3" s="58">
+      <c r="Z3" s="53">
         <v>82507.73759722762</v>
       </c>
-      <c r="AA3" s="58">
+      <c r="AA3" s="53">
         <v>17889.570216443499</v>
       </c>
-      <c r="AB3" s="58">
+      <c r="AB3" s="53">
         <v>47803.880013633127</v>
       </c>
-      <c r="AC3" s="58">
+      <c r="AC3" s="53">
         <v>836500.20353178831</v>
       </c>
-      <c r="AD3" s="58">
+      <c r="AD3" s="53">
         <v>86729.292661832762</v>
       </c>
-      <c r="AE3" s="58">
+      <c r="AE3" s="53">
         <v>93080.79834259818</v>
       </c>
-      <c r="AF3" s="58">
+      <c r="AF3" s="53">
         <v>141275.9933556621</v>
       </c>
-      <c r="AG3" s="58">
+      <c r="AG3" s="53">
         <v>9007577.8367389981</v>
       </c>
-      <c r="AH3" s="58">
+      <c r="AH3" s="53">
         <v>4197419.4407925233</v>
       </c>
-      <c r="AI3" s="58">
+      <c r="AI3" s="53">
         <v>320510.75830277923</v>
       </c>
-      <c r="AJ3" s="58">
+      <c r="AJ3" s="53">
         <v>21737702.49715589</v>
       </c>
-      <c r="AK3" s="58">
+      <c r="AK3" s="53">
         <v>1147388.2450571619</v>
       </c>
-      <c r="AL3" s="58">
+      <c r="AL3" s="53">
         <v>6255736.1603879873</v>
       </c>
-      <c r="AM3" s="58">
+      <c r="AM3" s="53">
         <v>522835.56898494862</v>
       </c>
-      <c r="AN3" s="58">
+      <c r="AN3" s="53">
         <v>732018.11834070948</v>
       </c>
-      <c r="AO3" s="58">
+      <c r="AO3" s="53">
         <v>112070.3009078516</v>
       </c>
-      <c r="AP3" s="58">
+      <c r="AP3" s="53">
         <v>1241460.5867669899</v>
       </c>
-      <c r="AQ3" s="58">
+      <c r="AQ3" s="53">
         <v>1961354.28022472</v>
       </c>
-      <c r="AR3" s="58">
+      <c r="AR3" s="53">
         <v>1769607.5544696189</v>
       </c>
-      <c r="AS3" s="58">
+      <c r="AS3" s="53">
         <v>491534.17636232119</v>
       </c>
-      <c r="AT3" s="58">
+      <c r="AT3" s="53">
         <v>1300624.3451996809</v>
       </c>
-      <c r="AU3" s="58">
+      <c r="AU3" s="53">
         <v>629839.27992569329</v>
       </c>
-      <c r="AV3" s="58">
+      <c r="AV3" s="53">
         <v>428524.13859445002</v>
       </c>
-      <c r="AW3" s="58">
+      <c r="AW3" s="53">
         <v>4959804.8857244421</v>
       </c>
       <c r="AX3" s="28">
@@ -3509,148 +1865,148 @@
       <c r="A4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="53">
         <v>9567473.7551773004</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="53">
         <v>3971463.7718539508</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="53">
         <v>784688.47070150508</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="53">
         <v>39651.145200209306</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="53">
         <v>3492245.7538916329</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="53">
         <v>37898809.643097207</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="53">
         <v>1289049.6202030811</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="53">
         <v>348782.03149607312</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="53">
         <v>8754404.3209995311</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="53">
         <v>14888643.206896231</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="53">
         <v>23622572.11557243</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="53">
         <v>1505881.806498413</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="53">
         <v>2046107.33016286</v>
       </c>
-      <c r="O4" s="58">
+      <c r="O4" s="53">
         <v>2837158.8805131321</v>
       </c>
-      <c r="P4" s="58">
+      <c r="P4" s="53">
         <v>850792.38503441098</v>
       </c>
-      <c r="Q4" s="58">
+      <c r="Q4" s="53">
         <v>20356391.59752753</v>
       </c>
-      <c r="R4" s="58">
+      <c r="R4" s="53">
         <v>306745.98943161638</v>
       </c>
-      <c r="S4" s="58">
+      <c r="S4" s="53">
         <v>159884.97912485819</v>
       </c>
-      <c r="T4" s="58">
+      <c r="T4" s="53">
         <v>464508.56646989059</v>
       </c>
-      <c r="U4" s="58">
+      <c r="U4" s="53">
         <v>17009.75680246397</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="53">
         <v>5205837.2550516808</v>
       </c>
-      <c r="W4" s="58">
+      <c r="W4" s="53">
         <v>10053633.062734719</v>
       </c>
-      <c r="X4" s="58">
+      <c r="X4" s="53">
         <v>4093749.1571337092</v>
       </c>
-      <c r="Y4" s="58">
+      <c r="Y4" s="53">
         <v>6473580.2967574708</v>
       </c>
-      <c r="Z4" s="58">
+      <c r="Z4" s="53">
         <v>12603550.74835589</v>
       </c>
-      <c r="AA4" s="58">
+      <c r="AA4" s="53">
         <v>783692.77259838406</v>
       </c>
-      <c r="AB4" s="58">
+      <c r="AB4" s="53">
         <v>1854290.700618448</v>
       </c>
-      <c r="AC4" s="58">
+      <c r="AC4" s="53">
         <v>15187629.379370879</v>
       </c>
-      <c r="AD4" s="58">
+      <c r="AD4" s="53">
         <v>4614046.4335723333</v>
       </c>
-      <c r="AE4" s="58">
+      <c r="AE4" s="53">
         <v>3803221.6814189102</v>
       </c>
-      <c r="AF4" s="58">
+      <c r="AF4" s="53">
         <v>7469993.1731730606</v>
       </c>
-      <c r="AG4" s="58">
+      <c r="AG4" s="53">
         <v>9270988.0369370058</v>
       </c>
-      <c r="AH4" s="58">
+      <c r="AH4" s="53">
         <v>154450830.13875481</v>
       </c>
-      <c r="AI4" s="58">
+      <c r="AI4" s="53">
         <v>48200215.802401669</v>
       </c>
-      <c r="AJ4" s="58">
+      <c r="AJ4" s="53">
         <v>214023481.04569939</v>
       </c>
-      <c r="AK4" s="58">
+      <c r="AK4" s="53">
         <v>23216474.336858138</v>
       </c>
-      <c r="AL4" s="58">
+      <c r="AL4" s="53">
         <v>250401817.5176596</v>
       </c>
-      <c r="AM4" s="58">
+      <c r="AM4" s="53">
         <v>6142784.1474998333</v>
       </c>
-      <c r="AN4" s="58">
+      <c r="AN4" s="53">
         <v>48471979.182893023</v>
       </c>
-      <c r="AO4" s="58">
+      <c r="AO4" s="53">
         <v>39008392.614187777</v>
       </c>
-      <c r="AP4" s="58">
+      <c r="AP4" s="53">
         <v>166557634.56637099</v>
       </c>
-      <c r="AQ4" s="58">
+      <c r="AQ4" s="53">
         <v>18518256.648409929</v>
       </c>
-      <c r="AR4" s="58">
+      <c r="AR4" s="53">
         <v>45728215.880686089</v>
       </c>
-      <c r="AS4" s="58">
+      <c r="AS4" s="53">
         <v>11122021.262976831</v>
       </c>
-      <c r="AT4" s="58">
+      <c r="AT4" s="53">
         <v>25049188.834875569</v>
       </c>
-      <c r="AU4" s="58">
+      <c r="AU4" s="53">
         <v>17665588.40118482</v>
       </c>
-      <c r="AV4" s="58">
+      <c r="AV4" s="53">
         <v>52286071.679451346</v>
       </c>
-      <c r="AW4" s="58">
+      <c r="AW4" s="53">
         <v>28219827.568132151</v>
       </c>
       <c r="AX4" s="28">
@@ -3662,148 +2018,148 @@
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="53">
         <v>1179446.833015481</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="53">
         <v>616121.03448538086</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="53">
         <v>191000.2053282813</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="53">
         <v>12713.10161190399</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="53">
         <v>557190.01114956522</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="53">
         <v>5705832.6715866216</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="53">
         <v>483305.77109939401</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="53">
         <v>54581.751895628768</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="53">
         <v>1771531.1697775761</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="53">
         <v>926607.3251861661</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="53">
         <v>2972143.5248257271</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="53">
         <v>256267.284386732</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="53">
         <v>357555.48144030332</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="53">
         <v>215485.6568992461</v>
       </c>
-      <c r="P5" s="58">
+      <c r="P5" s="53">
         <v>125337.81340765661</v>
       </c>
-      <c r="Q5" s="58">
+      <c r="Q5" s="53">
         <v>3125875.405134765</v>
       </c>
-      <c r="R5" s="58">
+      <c r="R5" s="53">
         <v>126064.8858332396</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="53">
         <v>39301.403231222779</v>
       </c>
-      <c r="T5" s="58">
+      <c r="T5" s="53">
         <v>457268.71249082673</v>
       </c>
-      <c r="U5" s="58">
+      <c r="U5" s="53">
         <v>6025.9939470947447</v>
       </c>
-      <c r="V5" s="58">
+      <c r="V5" s="53">
         <v>588015.74800777156</v>
       </c>
-      <c r="W5" s="58">
+      <c r="W5" s="53">
         <v>1859451.5163430551</v>
       </c>
-      <c r="X5" s="58">
+      <c r="X5" s="53">
         <v>342631.1717982039</v>
       </c>
-      <c r="Y5" s="58">
+      <c r="Y5" s="53">
         <v>673275.06909282284</v>
       </c>
-      <c r="Z5" s="58">
+      <c r="Z5" s="53">
         <v>1041318.188071574</v>
       </c>
-      <c r="AA5" s="58">
+      <c r="AA5" s="53">
         <v>315953.24197990599</v>
       </c>
-      <c r="AB5" s="58">
+      <c r="AB5" s="53">
         <v>439043.1603717067</v>
       </c>
-      <c r="AC5" s="58">
+      <c r="AC5" s="53">
         <v>2110237.6267423471</v>
       </c>
-      <c r="AD5" s="58">
+      <c r="AD5" s="53">
         <v>393214.18320200488</v>
       </c>
-      <c r="AE5" s="58">
+      <c r="AE5" s="53">
         <v>389072.48487601039</v>
       </c>
-      <c r="AF5" s="58">
+      <c r="AF5" s="53">
         <v>1155177.4732712191</v>
       </c>
-      <c r="AG5" s="58">
+      <c r="AG5" s="53">
         <v>2869108.9589559129</v>
       </c>
-      <c r="AH5" s="58">
+      <c r="AH5" s="53">
         <v>24802871.04820352</v>
       </c>
-      <c r="AI5" s="58">
+      <c r="AI5" s="53">
         <v>991535.54842796386</v>
       </c>
-      <c r="AJ5" s="58">
+      <c r="AJ5" s="53">
         <v>80463447.597858906</v>
       </c>
-      <c r="AK5" s="58">
+      <c r="AK5" s="53">
         <v>2459216.9785848041</v>
       </c>
-      <c r="AL5" s="58">
+      <c r="AL5" s="53">
         <v>6057527.0236301422</v>
       </c>
-      <c r="AM5" s="58">
+      <c r="AM5" s="53">
         <v>2474133.145621818</v>
       </c>
-      <c r="AN5" s="58">
+      <c r="AN5" s="53">
         <v>2814119.2150204862</v>
       </c>
-      <c r="AO5" s="58">
+      <c r="AO5" s="53">
         <v>892392.20375946967</v>
       </c>
-      <c r="AP5" s="58">
+      <c r="AP5" s="53">
         <v>1023184.855414029</v>
       </c>
-      <c r="AQ5" s="58">
+      <c r="AQ5" s="53">
         <v>1800255.8083585049</v>
       </c>
-      <c r="AR5" s="58">
+      <c r="AR5" s="53">
         <v>3788031.3039357942</v>
       </c>
-      <c r="AS5" s="58">
+      <c r="AS5" s="53">
         <v>1084796.5852656669</v>
       </c>
-      <c r="AT5" s="58">
+      <c r="AT5" s="53">
         <v>4372298.638540254</v>
       </c>
-      <c r="AU5" s="58">
+      <c r="AU5" s="53">
         <v>5726343.7550353352</v>
       </c>
-      <c r="AV5" s="58">
+      <c r="AV5" s="53">
         <v>2096711.364522642</v>
       </c>
-      <c r="AW5" s="58">
+      <c r="AW5" s="53">
         <v>4028147.5917521478</v>
       </c>
       <c r="AX5" s="28">
@@ -3815,148 +2171,148 @@
       <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="53">
         <v>698964.19456722098</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="53">
         <v>1497473.698939892</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="53">
         <v>421561.73947559501</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="53">
         <v>8283.1688897497843</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="53">
         <v>606000.73299458367</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="53">
         <v>7618682.2741230736</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="53">
         <v>184328.53447422379</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="53">
         <v>52105.213708166673</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="53">
         <v>1724721.0137753279</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="53">
         <v>400622.10078600852</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="53">
         <v>3427642.1360149458</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="53">
         <v>348492.93160000752</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="53">
         <v>453245.05698740279</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="53">
         <v>175877.47477980491</v>
       </c>
-      <c r="P6" s="58">
+      <c r="P6" s="53">
         <v>157564.9625733826</v>
       </c>
-      <c r="Q6" s="58">
+      <c r="Q6" s="53">
         <v>4787430.0664749686</v>
       </c>
-      <c r="R6" s="58">
+      <c r="R6" s="53">
         <v>122810.291096841</v>
       </c>
-      <c r="S6" s="58">
+      <c r="S6" s="53">
         <v>53408.726593317777</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="53">
         <v>48642.283634597938</v>
       </c>
-      <c r="U6" s="58">
+      <c r="U6" s="53">
         <v>10330.275953313439</v>
       </c>
-      <c r="V6" s="58">
+      <c r="V6" s="53">
         <v>2174058.1304423111</v>
       </c>
-      <c r="W6" s="58">
+      <c r="W6" s="53">
         <v>1725982.0178629381</v>
       </c>
-      <c r="X6" s="58">
+      <c r="X6" s="53">
         <v>334176.14445393538</v>
       </c>
-      <c r="Y6" s="58">
+      <c r="Y6" s="53">
         <v>488469.90159119532</v>
       </c>
-      <c r="Z6" s="58">
+      <c r="Z6" s="53">
         <v>775052.19424044667</v>
       </c>
-      <c r="AA6" s="58">
+      <c r="AA6" s="53">
         <v>120698.4805713088</v>
       </c>
-      <c r="AB6" s="58">
+      <c r="AB6" s="53">
         <v>325276.05279871868</v>
       </c>
-      <c r="AC6" s="58">
+      <c r="AC6" s="53">
         <v>3526140.8131601969</v>
       </c>
-      <c r="AD6" s="58">
+      <c r="AD6" s="53">
         <v>550812.71820230689</v>
       </c>
-      <c r="AE6" s="58">
+      <c r="AE6" s="53">
         <v>1090509.1641680009</v>
       </c>
-      <c r="AF6" s="58">
+      <c r="AF6" s="53">
         <v>4009035.0363319982</v>
       </c>
-      <c r="AG6" s="58">
+      <c r="AG6" s="53">
         <v>4717013.3747561369</v>
       </c>
-      <c r="AH6" s="58">
+      <c r="AH6" s="53">
         <v>22904102.133834049</v>
       </c>
-      <c r="AI6" s="58">
+      <c r="AI6" s="53">
         <v>1929394.3755518009</v>
       </c>
-      <c r="AJ6" s="58">
+      <c r="AJ6" s="53">
         <v>62421009.144128442</v>
       </c>
-      <c r="AK6" s="58">
+      <c r="AK6" s="53">
         <v>5304004.7932432387</v>
       </c>
-      <c r="AL6" s="58">
+      <c r="AL6" s="53">
         <v>5088958.8319502603</v>
       </c>
-      <c r="AM6" s="58">
+      <c r="AM6" s="53">
         <v>3974284.502295773</v>
       </c>
-      <c r="AN6" s="58">
+      <c r="AN6" s="53">
         <v>10702004.22573939</v>
       </c>
-      <c r="AO6" s="58">
+      <c r="AO6" s="53">
         <v>542516.10619012953</v>
       </c>
-      <c r="AP6" s="58">
+      <c r="AP6" s="53">
         <v>4742156.6577376965</v>
       </c>
-      <c r="AQ6" s="58">
+      <c r="AQ6" s="53">
         <v>15628345.36356434</v>
       </c>
-      <c r="AR6" s="58">
+      <c r="AR6" s="53">
         <v>3438142.3022250831</v>
       </c>
-      <c r="AS6" s="58">
+      <c r="AS6" s="53">
         <v>2552946.939790573</v>
       </c>
-      <c r="AT6" s="58">
+      <c r="AT6" s="53">
         <v>7966880.3119558673</v>
       </c>
-      <c r="AU6" s="58">
+      <c r="AU6" s="53">
         <v>3801933.4366918271</v>
       </c>
-      <c r="AV6" s="58">
+      <c r="AV6" s="53">
         <v>3276146.6468040892</v>
       </c>
-      <c r="AW6" s="58">
+      <c r="AW6" s="53">
         <v>16456273.42779907</v>
       </c>
       <c r="AX6" s="28">
@@ -3968,148 +2324,148 @@
       <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="53">
         <v>769637.60619719198</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="53">
         <v>1277046.1272479109</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="53">
         <v>653155.95294948248</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="53">
         <v>46721.754323275927</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="53">
         <v>617214.92418713355</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="53">
         <v>14947912.60449619</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="53">
         <v>944108.30863988842</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="53">
         <v>174247.861233106</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="53">
         <v>3847111.4237118582</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="53">
         <v>729532.83199472632</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="53">
         <v>5147723.3949898854</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="53">
         <v>941634.84611644992</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="53">
         <v>750758.88768519927</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="53">
         <v>499835.94746916939</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="53">
         <v>170114.91163473061</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="53">
         <v>6430341.8468817454</v>
       </c>
-      <c r="R7" s="58">
+      <c r="R7" s="53">
         <v>133251.80164305691</v>
       </c>
-      <c r="S7" s="58">
+      <c r="S7" s="53">
         <v>281212.98685774661</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="53">
         <v>250295.70103144171</v>
       </c>
-      <c r="U7" s="58">
+      <c r="U7" s="53">
         <v>8578.1577896755516</v>
       </c>
-      <c r="V7" s="58">
+      <c r="V7" s="53">
         <v>1209142.1262655889</v>
       </c>
-      <c r="W7" s="58">
+      <c r="W7" s="53">
         <v>2523448.5455155061</v>
       </c>
-      <c r="X7" s="58">
+      <c r="X7" s="53">
         <v>1984837.3989442021</v>
       </c>
-      <c r="Y7" s="58">
+      <c r="Y7" s="53">
         <v>1060894.7510147551</v>
       </c>
-      <c r="Z7" s="58">
+      <c r="Z7" s="53">
         <v>798820.15299519582</v>
       </c>
-      <c r="AA7" s="58">
+      <c r="AA7" s="53">
         <v>460094.26556639868</v>
       </c>
-      <c r="AB7" s="58">
+      <c r="AB7" s="53">
         <v>273978.27539914049</v>
       </c>
-      <c r="AC7" s="58">
+      <c r="AC7" s="53">
         <v>4338051.4392413469</v>
       </c>
-      <c r="AD7" s="58">
+      <c r="AD7" s="53">
         <v>465583.52723515662</v>
       </c>
-      <c r="AE7" s="58">
+      <c r="AE7" s="53">
         <v>1474177.735277144</v>
       </c>
-      <c r="AF7" s="58">
+      <c r="AF7" s="53">
         <v>1965103.110239954</v>
       </c>
-      <c r="AG7" s="58">
+      <c r="AG7" s="53">
         <v>1034877.570376245</v>
       </c>
-      <c r="AH7" s="58">
+      <c r="AH7" s="53">
         <v>13862261.55099136</v>
       </c>
-      <c r="AI7" s="58">
+      <c r="AI7" s="53">
         <v>4001426.635152529</v>
       </c>
-      <c r="AJ7" s="58">
+      <c r="AJ7" s="53">
         <v>47803519.168963127</v>
       </c>
-      <c r="AK7" s="58">
+      <c r="AK7" s="53">
         <v>5138867.594958582</v>
       </c>
-      <c r="AL7" s="58">
+      <c r="AL7" s="53">
         <v>746956.20737202582</v>
       </c>
-      <c r="AM7" s="58">
+      <c r="AM7" s="53">
         <v>2812039.2022428229</v>
       </c>
-      <c r="AN7" s="58">
+      <c r="AN7" s="53">
         <v>3884867.1686560991</v>
       </c>
-      <c r="AO7" s="58">
+      <c r="AO7" s="53">
         <v>3114735.7141520041</v>
       </c>
-      <c r="AP7" s="58">
+      <c r="AP7" s="53">
         <v>868065.73141054506</v>
       </c>
-      <c r="AQ7" s="58">
+      <c r="AQ7" s="53">
         <v>1843498.036003493</v>
       </c>
-      <c r="AR7" s="58">
+      <c r="AR7" s="53">
         <v>3312111.7658849349</v>
       </c>
-      <c r="AS7" s="58">
+      <c r="AS7" s="53">
         <v>2227837.543656535</v>
       </c>
-      <c r="AT7" s="58">
+      <c r="AT7" s="53">
         <v>2272341.08066954</v>
       </c>
-      <c r="AU7" s="58">
+      <c r="AU7" s="53">
         <v>1991576.216581275</v>
       </c>
-      <c r="AV7" s="58">
+      <c r="AV7" s="53">
         <v>192344.7059487571</v>
       </c>
-      <c r="AW7" s="58">
+      <c r="AW7" s="53">
         <v>4386783.5983459428</v>
       </c>
       <c r="AX7" s="28">
@@ -4121,148 +2477,148 @@
       <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="53">
         <v>4692566.7388148243</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="53">
         <v>8271955.0686922837</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="53">
         <v>2973910.8114909902</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="53">
         <v>153450.53815675189</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="53">
         <v>6400029.7010563202</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="53">
         <v>48693037.64555233</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="53">
         <v>2312892.716435099</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="53">
         <v>329747.85004979349</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="53">
         <v>15955221.04120726</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="53">
         <v>3245429.0682123289</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="53">
         <v>24194458.79649625</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="53">
         <v>4309782.6559621366</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="53">
         <v>3084780.0271829991</v>
       </c>
-      <c r="O8" s="58">
+      <c r="O8" s="53">
         <v>1045754.185483931</v>
       </c>
-      <c r="P8" s="58">
+      <c r="P8" s="53">
         <v>1053556.2067156611</v>
       </c>
-      <c r="Q8" s="58">
+      <c r="Q8" s="53">
         <v>27442790.873859368</v>
       </c>
-      <c r="R8" s="58">
+      <c r="R8" s="53">
         <v>840659.70722627966</v>
       </c>
-      <c r="S8" s="58">
+      <c r="S8" s="53">
         <v>975897.08706497424</v>
       </c>
-      <c r="T8" s="58">
+      <c r="T8" s="53">
         <v>622006.71269894717</v>
       </c>
-      <c r="U8" s="58">
+      <c r="U8" s="53">
         <v>115517.40480747059</v>
       </c>
-      <c r="V8" s="58">
+      <c r="V8" s="53">
         <v>13452110.928067351</v>
       </c>
-      <c r="W8" s="58">
+      <c r="W8" s="53">
         <v>10658776.51643726</v>
       </c>
-      <c r="X8" s="58">
+      <c r="X8" s="53">
         <v>2644960.4514997518</v>
       </c>
-      <c r="Y8" s="58">
+      <c r="Y8" s="53">
         <v>5655174.0678493641</v>
       </c>
-      <c r="Z8" s="58">
+      <c r="Z8" s="53">
         <v>6423599.9714502003</v>
       </c>
-      <c r="AA8" s="58">
+      <c r="AA8" s="53">
         <v>1061523.018651881</v>
       </c>
-      <c r="AB8" s="58">
+      <c r="AB8" s="53">
         <v>4414069.0698266868</v>
       </c>
-      <c r="AC8" s="58">
+      <c r="AC8" s="53">
         <v>17784679.097092539</v>
       </c>
-      <c r="AD8" s="58">
+      <c r="AD8" s="53">
         <v>3651133.486471395</v>
       </c>
-      <c r="AE8" s="58">
+      <c r="AE8" s="53">
         <v>3835554.2173582981</v>
       </c>
-      <c r="AF8" s="58">
+      <c r="AF8" s="53">
         <v>10221627.255457509</v>
       </c>
-      <c r="AG8" s="58">
+      <c r="AG8" s="53">
         <v>30074203.37871059</v>
       </c>
-      <c r="AH8" s="58">
+      <c r="AH8" s="53">
         <v>114118558.2380508</v>
       </c>
-      <c r="AI8" s="58">
+      <c r="AI8" s="53">
         <v>15316574.15078284</v>
       </c>
-      <c r="AJ8" s="58">
+      <c r="AJ8" s="53">
         <v>628140772.47765732</v>
       </c>
-      <c r="AK8" s="58">
+      <c r="AK8" s="53">
         <v>81566751.353927493</v>
       </c>
-      <c r="AL8" s="58">
+      <c r="AL8" s="53">
         <v>117204311.575067</v>
       </c>
-      <c r="AM8" s="58">
+      <c r="AM8" s="53">
         <v>11656229.951013099</v>
       </c>
-      <c r="AN8" s="58">
+      <c r="AN8" s="53">
         <v>50055770.838070519</v>
       </c>
-      <c r="AO8" s="58">
+      <c r="AO8" s="53">
         <v>9759434.8200499993</v>
       </c>
-      <c r="AP8" s="58">
+      <c r="AP8" s="53">
         <v>19292215.042730901</v>
       </c>
-      <c r="AQ8" s="58">
+      <c r="AQ8" s="53">
         <v>73062474.477569193</v>
       </c>
-      <c r="AR8" s="58">
+      <c r="AR8" s="53">
         <v>38207776.811759837</v>
       </c>
-      <c r="AS8" s="58">
+      <c r="AS8" s="53">
         <v>21224035.35336611</v>
       </c>
-      <c r="AT8" s="58">
+      <c r="AT8" s="53">
         <v>37709265.673494898</v>
       </c>
-      <c r="AU8" s="58">
+      <c r="AU8" s="53">
         <v>38384287.246159017</v>
       </c>
-      <c r="AV8" s="58">
+      <c r="AV8" s="53">
         <v>9355408.6240888052</v>
       </c>
-      <c r="AW8" s="58">
+      <c r="AW8" s="53">
         <v>47820009.233110942</v>
       </c>
       <c r="AX8" s="28">
@@ -4274,148 +2630,148 @@
       <c r="A9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="53">
         <v>615.05481951898173</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="53">
         <v>196.35638368520031</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="53">
         <v>23.978016480199681</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="53">
         <v>1.854623437469507</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="53">
         <v>441.90569585447679</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="53">
         <v>10664.134475672539</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="53">
         <v>86.620387644508952</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="53">
         <v>13.28073270555104</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="53">
         <v>326.89802160124532</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="53">
         <v>276.58530586842369</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="53">
         <v>752.09642706886007</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="53">
         <v>68.846872123774517</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="53">
         <v>134.59321883618571</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="53">
         <v>23.95854954748545</v>
       </c>
-      <c r="P9" s="58">
+      <c r="P9" s="53">
         <v>47.715865207414382</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q9" s="53">
         <v>520.51268545302798</v>
       </c>
-      <c r="R9" s="58">
+      <c r="R9" s="53">
         <v>18.121545826044819</v>
       </c>
-      <c r="S9" s="58">
+      <c r="S9" s="53">
         <v>15.10579460665374</v>
       </c>
-      <c r="T9" s="58">
+      <c r="T9" s="53">
         <v>17.769534738249991</v>
       </c>
-      <c r="U9" s="58">
+      <c r="U9" s="53">
         <v>2.281378939753532</v>
       </c>
-      <c r="V9" s="58">
+      <c r="V9" s="53">
         <v>222.9456488574651</v>
       </c>
-      <c r="W9" s="58">
+      <c r="W9" s="53">
         <v>475.70349417338002</v>
       </c>
-      <c r="X9" s="58">
+      <c r="X9" s="53">
         <v>91.373770088182596</v>
       </c>
-      <c r="Y9" s="58">
+      <c r="Y9" s="53">
         <v>97.784235911572551</v>
       </c>
-      <c r="Z9" s="58">
+      <c r="Z9" s="53">
         <v>447.686985948553</v>
       </c>
-      <c r="AA9" s="58">
+      <c r="AA9" s="53">
         <v>36.225384070708003</v>
       </c>
-      <c r="AB9" s="58">
+      <c r="AB9" s="53">
         <v>114.06809412535129</v>
       </c>
-      <c r="AC9" s="58">
+      <c r="AC9" s="53">
         <v>667.44969511757199</v>
       </c>
-      <c r="AD9" s="58">
+      <c r="AD9" s="53">
         <v>123.96433778564339</v>
       </c>
-      <c r="AE9" s="58">
+      <c r="AE9" s="53">
         <v>2688.9443246437331</v>
       </c>
-      <c r="AF9" s="58">
+      <c r="AF9" s="53">
         <v>39.583578934564457</v>
       </c>
-      <c r="AG9" s="58">
+      <c r="AG9" s="53">
         <v>227.68191926505361</v>
       </c>
-      <c r="AH9" s="58">
+      <c r="AH9" s="53">
         <v>5289.391883779007</v>
       </c>
-      <c r="AI9" s="58">
+      <c r="AI9" s="53">
         <v>2530.2921977828069</v>
       </c>
-      <c r="AJ9" s="58">
+      <c r="AJ9" s="53">
         <v>4303.1197073637577</v>
       </c>
-      <c r="AK9" s="58">
+      <c r="AK9" s="53">
         <v>377.54472472522002</v>
       </c>
-      <c r="AL9" s="58">
+      <c r="AL9" s="53">
         <v>702.48254746398209</v>
       </c>
-      <c r="AM9" s="58">
+      <c r="AM9" s="53">
         <v>829.69020262898437</v>
       </c>
-      <c r="AN9" s="58">
+      <c r="AN9" s="53">
         <v>1294.859348659347</v>
       </c>
-      <c r="AO9" s="58">
+      <c r="AO9" s="53">
         <v>122.4418779297536</v>
       </c>
-      <c r="AP9" s="58">
+      <c r="AP9" s="53">
         <v>193.37725489530371</v>
       </c>
-      <c r="AQ9" s="58">
+      <c r="AQ9" s="53">
         <v>1191.4535512881389</v>
       </c>
-      <c r="AR9" s="58">
+      <c r="AR9" s="53">
         <v>210.4261162041156</v>
       </c>
-      <c r="AS9" s="58">
+      <c r="AS9" s="53">
         <v>1531.8996500554131</v>
       </c>
-      <c r="AT9" s="58">
+      <c r="AT9" s="53">
         <v>1097.1907914226099</v>
       </c>
-      <c r="AU9" s="58">
+      <c r="AU9" s="53">
         <v>364.33730207398372</v>
       </c>
-      <c r="AV9" s="58">
+      <c r="AV9" s="53">
         <v>104.72849227172161</v>
       </c>
-      <c r="AW9" s="58">
+      <c r="AW9" s="53">
         <v>2100.096819061288</v>
       </c>
       <c r="AX9" s="28">
@@ -4427,148 +2783,148 @@
       <c r="A10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="53">
         <v>246714.74955286019</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="53">
         <v>257739.05175871591</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="53">
         <v>30050.7384663005</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="53">
         <v>4061.0244163601451</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="53">
         <v>125685.0700849492</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="53">
         <v>1566570.968446838</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="53">
         <v>99684.118517431692</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="53">
         <v>6025.2007342092593</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="53">
         <v>576614.54630425398</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="53">
         <v>82203.65822162191</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="53">
         <v>888967.26620328636</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="53">
         <v>71080.65118387001</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="53">
         <v>121011.1584757121</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="53">
         <v>77950.994123531593</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="53">
         <v>29919.354049272079</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="53">
         <v>956773.16028405901</v>
       </c>
-      <c r="R10" s="58">
+      <c r="R10" s="53">
         <v>10997.17834409926</v>
       </c>
-      <c r="S10" s="58">
+      <c r="S10" s="53">
         <v>13950.836433275799</v>
       </c>
-      <c r="T10" s="58">
+      <c r="T10" s="53">
         <v>9566.1074884171467</v>
       </c>
-      <c r="U10" s="58">
+      <c r="U10" s="53">
         <v>1918.649610935639</v>
       </c>
-      <c r="V10" s="58">
+      <c r="V10" s="53">
         <v>414926.10646918468</v>
       </c>
-      <c r="W10" s="58">
+      <c r="W10" s="53">
         <v>306286.401959487</v>
       </c>
-      <c r="X10" s="58">
+      <c r="X10" s="53">
         <v>63582.045777968029</v>
       </c>
-      <c r="Y10" s="58">
+      <c r="Y10" s="53">
         <v>259229.48657811811</v>
       </c>
-      <c r="Z10" s="58">
+      <c r="Z10" s="53">
         <v>206693.92967195559</v>
       </c>
-      <c r="AA10" s="58">
+      <c r="AA10" s="53">
         <v>95432.537766841298</v>
       </c>
-      <c r="AB10" s="58">
+      <c r="AB10" s="53">
         <v>72896.080208844811</v>
       </c>
-      <c r="AC10" s="58">
+      <c r="AC10" s="53">
         <v>532091.89510069427</v>
       </c>
-      <c r="AD10" s="58">
+      <c r="AD10" s="53">
         <v>335407.59126143478</v>
       </c>
-      <c r="AE10" s="58">
+      <c r="AE10" s="53">
         <v>371932.82549322757</v>
       </c>
-      <c r="AF10" s="58">
+      <c r="AF10" s="53">
         <v>211050.43473152659</v>
       </c>
-      <c r="AG10" s="58">
+      <c r="AG10" s="53">
         <v>346356.96051032539</v>
       </c>
-      <c r="AH10" s="58">
+      <c r="AH10" s="53">
         <v>6407495.0239101816</v>
       </c>
-      <c r="AI10" s="58">
+      <c r="AI10" s="53">
         <v>575302.93625163438</v>
       </c>
-      <c r="AJ10" s="58">
+      <c r="AJ10" s="53">
         <v>18164743.54782119</v>
       </c>
-      <c r="AK10" s="58">
+      <c r="AK10" s="53">
         <v>1716742.091842931</v>
       </c>
-      <c r="AL10" s="58">
+      <c r="AL10" s="53">
         <v>1688063.4207415979</v>
       </c>
-      <c r="AM10" s="58">
+      <c r="AM10" s="53">
         <v>1055733.05572513</v>
       </c>
-      <c r="AN10" s="58">
+      <c r="AN10" s="53">
         <v>963581.05021663499</v>
       </c>
-      <c r="AO10" s="58">
+      <c r="AO10" s="53">
         <v>188271.11659804769</v>
       </c>
-      <c r="AP10" s="58">
+      <c r="AP10" s="53">
         <v>889795.37308497995</v>
       </c>
-      <c r="AQ10" s="58">
+      <c r="AQ10" s="53">
         <v>2522237.1105816499</v>
       </c>
-      <c r="AR10" s="58">
+      <c r="AR10" s="53">
         <v>1480985.774277909</v>
       </c>
-      <c r="AS10" s="58">
+      <c r="AS10" s="53">
         <v>595203.23528691381</v>
       </c>
-      <c r="AT10" s="58">
+      <c r="AT10" s="53">
         <v>664906.48786845827</v>
       </c>
-      <c r="AU10" s="58">
+      <c r="AU10" s="53">
         <v>1050117.9126506259</v>
       </c>
-      <c r="AV10" s="58">
+      <c r="AV10" s="53">
         <v>371348.24121532048</v>
       </c>
-      <c r="AW10" s="58">
+      <c r="AW10" s="53">
         <v>1953719.823152381</v>
       </c>
       <c r="AX10" s="28">
@@ -4580,148 +2936,148 @@
       <c r="A11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="53">
         <v>51190.925685915783</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="53">
         <v>148450.64632940979</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="53">
         <v>70466.943670227105</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="53">
         <v>154.5093109639725</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="53">
         <v>68485.977832869656</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="53">
         <v>438608.80896081438</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="53">
         <v>10402.31570196654</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="53">
         <v>13760.376919886019</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="53">
         <v>753355.97974963638</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="53">
         <v>28743.393186758341</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="53">
         <v>318130.22364205919</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="53">
         <v>65440.825781267296</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="53">
         <v>18280.432241056202</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="53">
         <v>3072.596449162465</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="53">
         <v>28017.49824437745</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="Q11" s="53">
         <v>245192.22861289131</v>
       </c>
-      <c r="R11" s="58">
+      <c r="R11" s="53">
         <v>2345.829230880332</v>
       </c>
-      <c r="S11" s="58">
+      <c r="S11" s="53">
         <v>1609.8281610454719</v>
       </c>
-      <c r="T11" s="58">
+      <c r="T11" s="53">
         <v>811.57465799903093</v>
       </c>
-      <c r="U11" s="58">
+      <c r="U11" s="53">
         <v>152.5996956495967</v>
       </c>
-      <c r="V11" s="58">
+      <c r="V11" s="53">
         <v>131524.74971067629</v>
       </c>
-      <c r="W11" s="58">
+      <c r="W11" s="53">
         <v>176725.03293074999</v>
       </c>
-      <c r="X11" s="58">
+      <c r="X11" s="53">
         <v>26852.121071304799</v>
       </c>
-      <c r="Y11" s="58">
+      <c r="Y11" s="53">
         <v>23994.531372224199</v>
       </c>
-      <c r="Z11" s="58">
+      <c r="Z11" s="53">
         <v>41033.305783597752</v>
       </c>
-      <c r="AA11" s="58">
+      <c r="AA11" s="53">
         <v>41777.301020902189</v>
       </c>
-      <c r="AB11" s="58">
+      <c r="AB11" s="53">
         <v>21899.220541898831</v>
       </c>
-      <c r="AC11" s="58">
+      <c r="AC11" s="53">
         <v>140374.3884517386</v>
       </c>
-      <c r="AD11" s="58">
+      <c r="AD11" s="53">
         <v>82760.626634648477</v>
       </c>
-      <c r="AE11" s="58">
+      <c r="AE11" s="53">
         <v>69592.053711122309</v>
       </c>
-      <c r="AF11" s="58">
+      <c r="AF11" s="53">
         <v>3770.3184409475548</v>
       </c>
-      <c r="AG11" s="58">
+      <c r="AG11" s="53">
         <v>69032.861625266465</v>
       </c>
-      <c r="AH11" s="58">
+      <c r="AH11" s="53">
         <v>2283119.312042465</v>
       </c>
-      <c r="AI11" s="58">
+      <c r="AI11" s="53">
         <v>351941.57452197839</v>
       </c>
-      <c r="AJ11" s="58">
+      <c r="AJ11" s="53">
         <v>6026585.2886068895</v>
       </c>
-      <c r="AK11" s="58">
+      <c r="AK11" s="53">
         <v>143221.96130414499</v>
       </c>
-      <c r="AL11" s="58">
+      <c r="AL11" s="53">
         <v>1896866.2217146161</v>
       </c>
-      <c r="AM11" s="58">
+      <c r="AM11" s="53">
         <v>89905.458087045641</v>
       </c>
-      <c r="AN11" s="58">
+      <c r="AN11" s="53">
         <v>270180.88541988481</v>
       </c>
-      <c r="AO11" s="58">
+      <c r="AO11" s="53">
         <v>97101.447596645332</v>
       </c>
-      <c r="AP11" s="58">
+      <c r="AP11" s="53">
         <v>189660.59763077839</v>
       </c>
-      <c r="AQ11" s="58">
+      <c r="AQ11" s="53">
         <v>287052.26116295718</v>
       </c>
-      <c r="AR11" s="58">
+      <c r="AR11" s="53">
         <v>393256.25835935317</v>
       </c>
-      <c r="AS11" s="58">
+      <c r="AS11" s="53">
         <v>347129.69741409499</v>
       </c>
-      <c r="AT11" s="58">
+      <c r="AT11" s="53">
         <v>405015.31523476582</v>
       </c>
-      <c r="AU11" s="58">
+      <c r="AU11" s="53">
         <v>53039.72315602559</v>
       </c>
-      <c r="AV11" s="58">
+      <c r="AV11" s="53">
         <v>67842.363101089155</v>
       </c>
-      <c r="AW11" s="58">
+      <c r="AW11" s="53">
         <v>819503.09065838961</v>
       </c>
       <c r="AX11" s="28">
@@ -4733,148 +3089,148 @@
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="53">
         <v>77650.192372006873</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="53">
         <v>200011.80956905711</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="53">
         <v>185242.54360284019</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="53">
         <v>22691.641346458331</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="53">
         <v>29558.423610363148</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="53">
         <v>626479.79354784568</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="53">
         <v>14991.0758453815</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="53">
         <v>3277.3803854885932</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="53">
         <v>222827.38117967409</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="53">
         <v>70589.833583031999</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="53">
         <v>173619.83839177119</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="53">
         <v>15405.108060912349</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="53">
         <v>24786.287220387709</v>
       </c>
-      <c r="O12" s="58">
+      <c r="O12" s="53">
         <v>7238.747185593189</v>
       </c>
-      <c r="P12" s="58">
+      <c r="P12" s="53">
         <v>7552.0791516805066</v>
       </c>
-      <c r="Q12" s="58">
+      <c r="Q12" s="53">
         <v>282514.68900576991</v>
       </c>
-      <c r="R12" s="58">
+      <c r="R12" s="53">
         <v>4252.4455802885514</v>
       </c>
-      <c r="S12" s="58">
+      <c r="S12" s="53">
         <v>16167.153074367559</v>
       </c>
-      <c r="T12" s="58">
+      <c r="T12" s="53">
         <v>5665.2642109781291</v>
       </c>
-      <c r="U12" s="58">
+      <c r="U12" s="53">
         <v>639.02220839447864</v>
       </c>
-      <c r="V12" s="58">
+      <c r="V12" s="53">
         <v>93645.113777955878</v>
       </c>
-      <c r="W12" s="58">
+      <c r="W12" s="53">
         <v>249687.65507296601</v>
       </c>
-      <c r="X12" s="58">
+      <c r="X12" s="53">
         <v>22478.769161657729</v>
       </c>
-      <c r="Y12" s="58">
+      <c r="Y12" s="53">
         <v>29874.734362731571</v>
       </c>
-      <c r="Z12" s="58">
+      <c r="Z12" s="53">
         <v>114989.3612650671</v>
       </c>
-      <c r="AA12" s="58">
+      <c r="AA12" s="53">
         <v>6720.41851157578</v>
       </c>
-      <c r="AB12" s="58">
+      <c r="AB12" s="53">
         <v>21613.234659626971</v>
       </c>
-      <c r="AC12" s="58">
+      <c r="AC12" s="53">
         <v>114900.40871115989</v>
       </c>
-      <c r="AD12" s="58">
+      <c r="AD12" s="53">
         <v>31904.515931081889</v>
       </c>
-      <c r="AE12" s="58">
+      <c r="AE12" s="53">
         <v>93552.080351866753</v>
       </c>
-      <c r="AF12" s="58">
+      <c r="AF12" s="53">
         <v>11994.17444852195</v>
       </c>
-      <c r="AG12" s="58">
+      <c r="AG12" s="53">
         <v>133906.14928696741</v>
       </c>
-      <c r="AH12" s="58">
+      <c r="AH12" s="53">
         <v>924905.98983783333</v>
       </c>
-      <c r="AI12" s="58">
+      <c r="AI12" s="53">
         <v>216824.70713218741</v>
       </c>
-      <c r="AJ12" s="58">
+      <c r="AJ12" s="53">
         <v>6610175.625238698</v>
       </c>
-      <c r="AK12" s="58">
+      <c r="AK12" s="53">
         <v>419990.083642649</v>
       </c>
-      <c r="AL12" s="58">
+      <c r="AL12" s="53">
         <v>668002.2517704597</v>
       </c>
-      <c r="AM12" s="58">
+      <c r="AM12" s="53">
         <v>284672.98433649872</v>
       </c>
-      <c r="AN12" s="58">
+      <c r="AN12" s="53">
         <v>745536.48435786273</v>
       </c>
-      <c r="AO12" s="58">
+      <c r="AO12" s="53">
         <v>63348.995908228142</v>
       </c>
-      <c r="AP12" s="58">
+      <c r="AP12" s="53">
         <v>389314.93362827401</v>
       </c>
-      <c r="AQ12" s="58">
+      <c r="AQ12" s="53">
         <v>481321.37670479901</v>
       </c>
-      <c r="AR12" s="58">
+      <c r="AR12" s="53">
         <v>223103.41904189289</v>
       </c>
-      <c r="AS12" s="58">
+      <c r="AS12" s="53">
         <v>218876.64132314461</v>
       </c>
-      <c r="AT12" s="58">
+      <c r="AT12" s="53">
         <v>1375133.3979019879</v>
       </c>
-      <c r="AU12" s="58">
+      <c r="AU12" s="53">
         <v>347744.67707398249</v>
       </c>
-      <c r="AV12" s="58">
+      <c r="AV12" s="53">
         <v>124313.5266373593</v>
       </c>
-      <c r="AW12" s="58">
+      <c r="AW12" s="53">
         <v>1133394.9163203861</v>
       </c>
       <c r="AX12" s="28">
@@ -4886,148 +3242,148 @@
       <c r="A13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="53">
         <v>69657.390578187071</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="53">
         <v>175932.56846714221</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="53">
         <v>34499.142801123693</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="53">
         <v>738.93936594158038</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="53">
         <v>206459.1370071797</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="53">
         <v>780206.99994950532</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="53">
         <v>177369.76095341859</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="53">
         <v>6509.4124351396604</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="53">
         <v>234624.80817616859</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="53">
         <v>241446.97095449831</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="53">
         <v>503963.56248053769</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M13" s="53">
         <v>82989.412052979736</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="53">
         <v>158184.59222608109</v>
       </c>
-      <c r="O13" s="58">
+      <c r="O13" s="53">
         <v>13329.57698278176</v>
       </c>
-      <c r="P13" s="58">
+      <c r="P13" s="53">
         <v>39267.237721425547</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="Q13" s="53">
         <v>267553.21404508222</v>
       </c>
-      <c r="R13" s="58">
+      <c r="R13" s="53">
         <v>7048.2595482625129</v>
       </c>
-      <c r="S13" s="58">
+      <c r="S13" s="53">
         <v>14110.9154582335</v>
       </c>
-      <c r="T13" s="58">
+      <c r="T13" s="53">
         <v>11433.039270249859</v>
       </c>
-      <c r="U13" s="58">
+      <c r="U13" s="53">
         <v>3348.718005719179</v>
       </c>
-      <c r="V13" s="58">
+      <c r="V13" s="53">
         <v>153178.8032967766</v>
       </c>
-      <c r="W13" s="58">
+      <c r="W13" s="53">
         <v>277175.20012056897</v>
       </c>
-      <c r="X13" s="58">
+      <c r="X13" s="53">
         <v>97622.38072263106</v>
       </c>
-      <c r="Y13" s="58">
+      <c r="Y13" s="53">
         <v>184191.1091061676</v>
       </c>
-      <c r="Z13" s="58">
+      <c r="Z13" s="53">
         <v>145709.01251351251</v>
       </c>
-      <c r="AA13" s="58">
+      <c r="AA13" s="53">
         <v>122744.0005571393</v>
       </c>
-      <c r="AB13" s="58">
+      <c r="AB13" s="53">
         <v>103288.06767077791</v>
       </c>
-      <c r="AC13" s="58">
+      <c r="AC13" s="53">
         <v>361035.58488823823</v>
       </c>
-      <c r="AD13" s="58">
+      <c r="AD13" s="53">
         <v>106639.0094961626</v>
       </c>
-      <c r="AE13" s="58">
+      <c r="AE13" s="53">
         <v>113385.2235741365</v>
       </c>
-      <c r="AF13" s="58">
+      <c r="AF13" s="53">
         <v>213357.7481892427</v>
       </c>
-      <c r="AG13" s="58">
+      <c r="AG13" s="53">
         <v>1479023.0772476471</v>
       </c>
-      <c r="AH13" s="58">
+      <c r="AH13" s="53">
         <v>1984660.3644336881</v>
       </c>
-      <c r="AI13" s="58">
+      <c r="AI13" s="53">
         <v>552605.32639612886</v>
       </c>
-      <c r="AJ13" s="58">
+      <c r="AJ13" s="53">
         <v>6228930.09077687</v>
       </c>
-      <c r="AK13" s="58">
+      <c r="AK13" s="53">
         <v>421206.09499225998</v>
       </c>
-      <c r="AL13" s="58">
+      <c r="AL13" s="53">
         <v>8462158.7886596397</v>
       </c>
-      <c r="AM13" s="58">
+      <c r="AM13" s="53">
         <v>1334324.4662242271</v>
       </c>
-      <c r="AN13" s="58">
+      <c r="AN13" s="53">
         <v>686352.65228198026</v>
       </c>
-      <c r="AO13" s="58">
+      <c r="AO13" s="53">
         <v>5225322.531882951</v>
       </c>
-      <c r="AP13" s="58">
+      <c r="AP13" s="53">
         <v>2378438.8209198159</v>
       </c>
-      <c r="AQ13" s="58">
+      <c r="AQ13" s="53">
         <v>1718858.603309392</v>
       </c>
-      <c r="AR13" s="58">
+      <c r="AR13" s="53">
         <v>1696194.2564554899</v>
       </c>
-      <c r="AS13" s="58">
+      <c r="AS13" s="53">
         <v>513304.04610712349</v>
       </c>
-      <c r="AT13" s="58">
+      <c r="AT13" s="53">
         <v>386857.91182499321</v>
       </c>
-      <c r="AU13" s="58">
+      <c r="AU13" s="53">
         <v>674759.59472199902</v>
       </c>
-      <c r="AV13" s="58">
+      <c r="AV13" s="53">
         <v>565048.08863945527</v>
       </c>
-      <c r="AW13" s="58">
+      <c r="AW13" s="53">
         <v>2930635.7742976728</v>
       </c>
       <c r="AX13" s="28">
@@ -5039,148 +3395,148 @@
       <c r="A14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="53">
         <v>82569101.602027088</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="53">
         <v>89773904.312980607</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="53">
         <v>32825704.033738501</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="53">
         <v>11258353.66970733</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="53">
         <v>79588376.013693184</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="53">
         <v>580886144.54015398</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="53">
         <v>46654220.069733791</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="53">
         <v>11002956.56733501</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="53">
         <v>248106873.3517502</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="53">
         <v>61439980.391940959</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="53">
         <v>366937328.27700269</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="53">
         <v>59914623.939587921</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="53">
         <v>27208062.389123809</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O14" s="53">
         <v>18266335.822996799</v>
       </c>
-      <c r="P14" s="58">
+      <c r="P14" s="53">
         <v>45854350.601243593</v>
       </c>
-      <c r="Q14" s="58">
+      <c r="Q14" s="53">
         <v>319973921.45540762</v>
       </c>
-      <c r="R14" s="58">
+      <c r="R14" s="53">
         <v>12520398.45320487</v>
       </c>
-      <c r="S14" s="58">
+      <c r="S14" s="53">
         <v>8323770.2542466866</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="53">
         <v>11460964.76468938</v>
       </c>
-      <c r="U14" s="58">
+      <c r="U14" s="53">
         <v>1907637.9757493141</v>
       </c>
-      <c r="V14" s="58">
+      <c r="V14" s="53">
         <v>93196613.050937101</v>
       </c>
-      <c r="W14" s="58">
+      <c r="W14" s="53">
         <v>344676636.57985622</v>
       </c>
-      <c r="X14" s="58">
+      <c r="X14" s="53">
         <v>98216846.948086113</v>
       </c>
-      <c r="Y14" s="58">
+      <c r="Y14" s="53">
         <v>90242007.732135668</v>
       </c>
-      <c r="Z14" s="58">
+      <c r="Z14" s="53">
         <v>86552273.744850814</v>
       </c>
-      <c r="AA14" s="58">
+      <c r="AA14" s="53">
         <v>10809920.053288819</v>
       </c>
-      <c r="AB14" s="58">
+      <c r="AB14" s="53">
         <v>31216719.755188592</v>
       </c>
-      <c r="AC14" s="58">
+      <c r="AC14" s="53">
         <v>297037208.43454498</v>
       </c>
-      <c r="AD14" s="58">
+      <c r="AD14" s="53">
         <v>62700562.58955396</v>
       </c>
-      <c r="AE14" s="58">
+      <c r="AE14" s="53">
         <v>53523938.576885954</v>
       </c>
-      <c r="AF14" s="58">
+      <c r="AF14" s="53">
         <v>113534681.20956489</v>
       </c>
-      <c r="AG14" s="58">
+      <c r="AG14" s="53">
         <v>308175593.47508383</v>
       </c>
-      <c r="AH14" s="58">
+      <c r="AH14" s="53">
         <v>1762962579.17274</v>
       </c>
-      <c r="AI14" s="58">
+      <c r="AI14" s="53">
         <v>319899085.75265813</v>
       </c>
-      <c r="AJ14" s="58">
+      <c r="AJ14" s="53">
         <v>12880712746.06127</v>
       </c>
-      <c r="AK14" s="58">
+      <c r="AK14" s="53">
         <v>407081514.08974981</v>
       </c>
-      <c r="AL14" s="58">
+      <c r="AL14" s="53">
         <v>1226418126.468905</v>
       </c>
-      <c r="AM14" s="58">
+      <c r="AM14" s="53">
         <v>75950871.509768382</v>
       </c>
-      <c r="AN14" s="58">
+      <c r="AN14" s="53">
         <v>514928049.93760109</v>
       </c>
-      <c r="AO14" s="58">
+      <c r="AO14" s="53">
         <v>62876882.760491259</v>
       </c>
-      <c r="AP14" s="58">
+      <c r="AP14" s="53">
         <v>714955050.41169989</v>
       </c>
-      <c r="AQ14" s="58">
+      <c r="AQ14" s="53">
         <v>1480468338.340941</v>
       </c>
-      <c r="AR14" s="58">
+      <c r="AR14" s="53">
         <v>453027403.85519421</v>
       </c>
-      <c r="AS14" s="58">
+      <c r="AS14" s="53">
         <v>225420691.92284009</v>
       </c>
-      <c r="AT14" s="58">
+      <c r="AT14" s="53">
         <v>655161643.78498173</v>
       </c>
-      <c r="AU14" s="58">
+      <c r="AU14" s="53">
         <v>288653154.2563237</v>
       </c>
-      <c r="AV14" s="58">
+      <c r="AV14" s="53">
         <v>305977318.7621122</v>
       </c>
-      <c r="AW14" s="58">
+      <c r="AW14" s="53">
         <v>1611141204.0382581</v>
       </c>
       <c r="AX14" s="28">
@@ -5246,148 +3602,148 @@
       <c r="A16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="54">
         <v>83470.845260000002</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="54">
         <v>197102.39730000001</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="54">
         <v>40693.907769999998</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="54">
         <v>2706.2670969999999</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="54">
         <v>62035.630260000013</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="54">
         <v>1320460.852</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="54">
         <v>46811.962650000001</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="54">
         <v>8689.432084</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="54">
         <v>282650.27020000003</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="54">
         <v>39441.171010000013</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="54">
         <v>490819.69469999999</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="54">
         <v>145840.60949999999</v>
       </c>
-      <c r="N16" s="59">
+      <c r="N16" s="54">
         <v>31960.763579999999</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="54">
         <v>24370.825069999999</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="54">
         <v>54909.865299999998</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="54">
         <v>672803.37950000004</v>
       </c>
-      <c r="R16" s="59">
+      <c r="R16" s="54">
         <v>15184.34001</v>
       </c>
-      <c r="S16" s="59">
+      <c r="S16" s="54">
         <v>3423.0627260000001</v>
       </c>
-      <c r="T16" s="59">
+      <c r="T16" s="54">
         <v>6784.0826670000006</v>
       </c>
-      <c r="U16" s="59">
+      <c r="U16" s="54">
         <v>1141.4099639999999</v>
       </c>
-      <c r="V16" s="59">
+      <c r="V16" s="54">
         <v>238768.3303</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="54">
         <v>110791.4929</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="54">
         <v>84057.707699999999</v>
       </c>
-      <c r="Y16" s="59">
+      <c r="Y16" s="54">
         <v>50681.019099999998</v>
       </c>
-      <c r="Z16" s="59">
+      <c r="Z16" s="54">
         <v>60768.306859999997</v>
       </c>
-      <c r="AA16" s="59">
+      <c r="AA16" s="54">
         <v>12942.426810000001</v>
       </c>
-      <c r="AB16" s="59">
+      <c r="AB16" s="54">
         <v>30238.49914</v>
       </c>
-      <c r="AC16" s="59">
+      <c r="AC16" s="54">
         <v>741840.00349999999</v>
       </c>
-      <c r="AD16" s="59">
+      <c r="AD16" s="54">
         <v>64083.710590000002</v>
       </c>
-      <c r="AE16" s="59">
+      <c r="AE16" s="54">
         <v>62908.618190000001</v>
       </c>
-      <c r="AF16" s="59">
+      <c r="AF16" s="54">
         <v>89366.941520000008</v>
       </c>
-      <c r="AG16" s="59">
+      <c r="AG16" s="54">
         <v>5667611.9610000001</v>
       </c>
-      <c r="AH16" s="59">
+      <c r="AH16" s="54">
         <v>3693993.1469999999</v>
       </c>
-      <c r="AI16" s="59">
+      <c r="AI16" s="54">
         <v>269520.4743</v>
       </c>
-      <c r="AJ16" s="59">
+      <c r="AJ16" s="54">
         <v>10550031.220000001</v>
       </c>
-      <c r="AK16" s="59">
+      <c r="AK16" s="54">
         <v>786911.56909999996</v>
       </c>
-      <c r="AL16" s="59">
+      <c r="AL16" s="54">
         <v>2638553.4309999999</v>
       </c>
-      <c r="AM16" s="59">
+      <c r="AM16" s="54">
         <v>486426.28350000002</v>
       </c>
-      <c r="AN16" s="59">
+      <c r="AN16" s="54">
         <v>621445.07050000003</v>
       </c>
-      <c r="AO16" s="59">
+      <c r="AO16" s="54">
         <v>87781.174939999997</v>
       </c>
-      <c r="AP16" s="59">
+      <c r="AP16" s="54">
         <v>832559.04590000003</v>
       </c>
-      <c r="AQ16" s="59">
+      <c r="AQ16" s="54">
         <v>1212637.8149999999</v>
       </c>
-      <c r="AR16" s="59">
+      <c r="AR16" s="54">
         <v>1444995.7439999999</v>
       </c>
-      <c r="AS16" s="59">
+      <c r="AS16" s="54">
         <v>397086.55820000003</v>
       </c>
-      <c r="AT16" s="59">
+      <c r="AT16" s="54">
         <v>940262.37309999997</v>
       </c>
-      <c r="AU16" s="59">
+      <c r="AU16" s="54">
         <v>375986.46759999997</v>
       </c>
-      <c r="AV16" s="59">
+      <c r="AV16" s="54">
         <v>248271.80489999999</v>
       </c>
-      <c r="AW16" s="59">
+      <c r="AW16" s="54">
         <v>3274670.2319999998</v>
       </c>
       <c r="AX16" s="48">
@@ -5399,148 +3755,148 @@
       <c r="A17" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="54">
         <v>1735222.01</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="54">
         <v>641100.95180000004</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="54">
         <v>153085.98319999999</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="54">
         <v>11208.81308</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="54">
         <v>582257.00170000002</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="54">
         <v>6690690.9820000008</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="54">
         <v>356503.02649999998</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="54">
         <v>74906.794150000002</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="54">
         <v>2144679.27</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="54">
         <v>704656.87719999999</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="54">
         <v>4096877.548</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="54">
         <v>165548.1513</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="54">
         <v>191551.62359999999</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="54">
         <v>63305.733699999997</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="54">
         <v>69906.819099999993</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="54">
         <v>3437702.2740000002</v>
       </c>
-      <c r="R17" s="59">
+      <c r="R17" s="54">
         <v>42345.549919999998</v>
       </c>
-      <c r="S17" s="59">
+      <c r="S17" s="54">
         <v>13792.84252</v>
       </c>
-      <c r="T17" s="59">
+      <c r="T17" s="54">
         <v>54554.968810000013</v>
       </c>
-      <c r="U17" s="59">
+      <c r="U17" s="54">
         <v>3216.5527430000002</v>
       </c>
-      <c r="V17" s="59">
+      <c r="V17" s="54">
         <v>570867.45429999998</v>
       </c>
-      <c r="W17" s="59">
+      <c r="W17" s="54">
         <v>814952.29900000012</v>
       </c>
-      <c r="X17" s="59">
+      <c r="X17" s="54">
         <v>584756.19480000006</v>
       </c>
-      <c r="Y17" s="59">
+      <c r="Y17" s="54">
         <v>467772.02490000002</v>
       </c>
-      <c r="Z17" s="59">
+      <c r="Z17" s="54">
         <v>1331935.4580000001</v>
       </c>
-      <c r="AA17" s="59">
+      <c r="AA17" s="54">
         <v>136946.12270000001</v>
       </c>
-      <c r="AB17" s="59">
+      <c r="AB17" s="54">
         <v>168474.28649999999</v>
       </c>
-      <c r="AC17" s="59">
+      <c r="AC17" s="54">
         <v>4099161.9509999999</v>
       </c>
-      <c r="AD17" s="59">
+      <c r="AD17" s="54">
         <v>431642.78</v>
       </c>
-      <c r="AE17" s="59">
+      <c r="AE17" s="54">
         <v>731471.93259999994</v>
       </c>
-      <c r="AF17" s="59">
+      <c r="AF17" s="54">
         <v>1537177.2080000001</v>
       </c>
-      <c r="AG17" s="59">
+      <c r="AG17" s="54">
         <v>555310.4399</v>
       </c>
-      <c r="AH17" s="59">
+      <c r="AH17" s="54">
         <v>19121982.91</v>
       </c>
-      <c r="AI17" s="59">
+      <c r="AI17" s="54">
         <v>3711350.645</v>
       </c>
-      <c r="AJ17" s="59">
+      <c r="AJ17" s="54">
         <v>6609053.4349999996</v>
       </c>
-      <c r="AK17" s="59">
+      <c r="AK17" s="54">
         <v>2795502.5839999998</v>
       </c>
-      <c r="AL17" s="59">
+      <c r="AL17" s="54">
         <v>1582657.29</v>
       </c>
-      <c r="AM17" s="59">
+      <c r="AM17" s="54">
         <v>1278217.196</v>
       </c>
-      <c r="AN17" s="59">
+      <c r="AN17" s="54">
         <v>6968625.5250000004</v>
       </c>
-      <c r="AO17" s="59">
+      <c r="AO17" s="54">
         <v>2759518.3689999999</v>
       </c>
-      <c r="AP17" s="59">
+      <c r="AP17" s="54">
         <v>2590208.801</v>
       </c>
-      <c r="AQ17" s="59">
+      <c r="AQ17" s="54">
         <v>1091751.186</v>
       </c>
-      <c r="AR17" s="59">
+      <c r="AR17" s="54">
         <v>6227238.1109999996</v>
       </c>
-      <c r="AS17" s="59">
+      <c r="AS17" s="54">
         <v>1635030.389</v>
       </c>
-      <c r="AT17" s="59">
+      <c r="AT17" s="54">
         <v>2868099.81</v>
       </c>
-      <c r="AU17" s="59">
+      <c r="AU17" s="54">
         <v>1341703.209</v>
       </c>
-      <c r="AV17" s="59">
+      <c r="AV17" s="54">
         <v>14732365.609999999</v>
       </c>
-      <c r="AW17" s="59">
+      <c r="AW17" s="54">
         <v>2879337.8089999999</v>
       </c>
       <c r="AX17" s="48">
@@ -5552,148 +3908,148 @@
       <c r="A18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="54">
         <v>829208.78650000005</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="54">
         <v>430442.0208</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="54">
         <v>114334.2515</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="54">
         <v>8808.4566510000004</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="54">
         <v>391193.38130000001</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="54">
         <v>4085152.8229999999</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="54">
         <v>358539.47110000002</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="54">
         <v>36171.174899999998</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="54">
         <v>1332339.7180000001</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="54">
         <v>649741.18469999998</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="54">
         <v>2112636.4139999999</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M18" s="54">
         <v>193811.17189999999</v>
       </c>
-      <c r="N18" s="59">
+      <c r="N18" s="54">
         <v>263642.90090000001</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="54">
         <v>142639.79130000001</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="54">
         <v>81311.760860000009</v>
       </c>
-      <c r="Q18" s="59">
+      <c r="Q18" s="54">
         <v>2245840.5419999999</v>
       </c>
-      <c r="R18" s="59">
+      <c r="R18" s="54">
         <v>90610.585949999993</v>
       </c>
-      <c r="S18" s="59">
+      <c r="S18" s="54">
         <v>29582.328170000001</v>
       </c>
-      <c r="T18" s="59">
+      <c r="T18" s="54">
         <v>284671.43530000001</v>
       </c>
-      <c r="U18" s="59">
+      <c r="U18" s="54">
         <v>4243.8778940000002</v>
       </c>
-      <c r="V18" s="59">
+      <c r="V18" s="54">
         <v>397919.6017</v>
       </c>
-      <c r="W18" s="59">
+      <c r="W18" s="54">
         <v>1282878.263</v>
       </c>
-      <c r="X18" s="59">
+      <c r="X18" s="54">
         <v>281729.06449999998</v>
       </c>
-      <c r="Y18" s="59">
+      <c r="Y18" s="54">
         <v>456579.00150000001</v>
       </c>
-      <c r="Z18" s="59">
+      <c r="Z18" s="54">
         <v>737696.64350000001</v>
       </c>
-      <c r="AA18" s="59">
+      <c r="AA18" s="54">
         <v>233239.06349999999</v>
       </c>
-      <c r="AB18" s="59">
+      <c r="AB18" s="54">
         <v>335015.39679999999</v>
       </c>
-      <c r="AC18" s="59">
+      <c r="AC18" s="54">
         <v>1532845.8219999999</v>
       </c>
-      <c r="AD18" s="59">
+      <c r="AD18" s="54">
         <v>290103.09940000001</v>
       </c>
-      <c r="AE18" s="59">
+      <c r="AE18" s="54">
         <v>246029.35690000001</v>
       </c>
-      <c r="AF18" s="59">
+      <c r="AF18" s="54">
         <v>760319.35279999999</v>
       </c>
-      <c r="AG18" s="59">
+      <c r="AG18" s="54">
         <v>1828346.236</v>
       </c>
-      <c r="AH18" s="59">
+      <c r="AH18" s="54">
         <v>17739184.260000002</v>
       </c>
-      <c r="AI18" s="59">
+      <c r="AI18" s="54">
         <v>672390.32209999999</v>
       </c>
-      <c r="AJ18" s="59">
+      <c r="AJ18" s="54">
         <v>50912710.810000002</v>
       </c>
-      <c r="AK18" s="59">
+      <c r="AK18" s="54">
         <v>1666537.5919999999</v>
       </c>
-      <c r="AL18" s="59">
+      <c r="AL18" s="54">
         <v>3666550.8390000002</v>
       </c>
-      <c r="AM18" s="59">
+      <c r="AM18" s="54">
         <v>1682543.963</v>
       </c>
-      <c r="AN18" s="59">
+      <c r="AN18" s="54">
         <v>2005206.3470000001</v>
       </c>
-      <c r="AO18" s="59">
+      <c r="AO18" s="54">
         <v>580841.75939999998</v>
       </c>
-      <c r="AP18" s="59">
+      <c r="AP18" s="54">
         <v>655438.83149999997</v>
       </c>
-      <c r="AQ18" s="59">
+      <c r="AQ18" s="54">
         <v>1107665.838</v>
       </c>
-      <c r="AR18" s="59">
+      <c r="AR18" s="54">
         <v>2491670.75</v>
       </c>
-      <c r="AS18" s="59">
+      <c r="AS18" s="54">
         <v>739514.82290000003</v>
       </c>
-      <c r="AT18" s="59">
+      <c r="AT18" s="54">
         <v>3271701.5019999999</v>
       </c>
-      <c r="AU18" s="59">
+      <c r="AU18" s="54">
         <v>3677830.1540000001</v>
       </c>
-      <c r="AV18" s="59">
+      <c r="AV18" s="54">
         <v>1377831.9069999999</v>
       </c>
-      <c r="AW18" s="59">
+      <c r="AW18" s="54">
         <v>2607103.8089999999</v>
       </c>
       <c r="AX18" s="48">
@@ -5705,148 +4061,148 @@
       <c r="A19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="54">
         <v>486559.76299999998</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="54">
         <v>1002755.085</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="54">
         <v>200516.45749999999</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="54">
         <v>6929.9233249999997</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="54">
         <v>345652.95189999999</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="54">
         <v>5679810.7979999986</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="54">
         <v>138108.12100000001</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="54">
         <v>28738.548040000001</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="54">
         <v>1343740.76</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="54">
         <v>204836.14799999999</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="54">
         <v>2364619.1609999998</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="54">
         <v>261047.09820000001</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="54">
         <v>337331.02669999999</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="54">
         <v>140674.61910000001</v>
       </c>
-      <c r="P19" s="59">
+      <c r="P19" s="54">
         <v>96076.139060000001</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="54">
         <v>3524428.6830000002</v>
       </c>
-      <c r="R19" s="59">
+      <c r="R19" s="54">
         <v>80093.236350000006</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="54">
         <v>42298.654779999997</v>
       </c>
-      <c r="T19" s="59">
+      <c r="T19" s="54">
         <v>24558.601579999999</v>
       </c>
-      <c r="U19" s="59">
+      <c r="U19" s="54">
         <v>9163.7878889999993</v>
       </c>
-      <c r="V19" s="59">
+      <c r="V19" s="54">
         <v>1613784.548</v>
       </c>
-      <c r="W19" s="59">
+      <c r="W19" s="54">
         <v>759487.54079999996</v>
       </c>
-      <c r="X19" s="59">
+      <c r="X19" s="54">
         <v>238994.17170000001</v>
       </c>
-      <c r="Y19" s="59">
+      <c r="Y19" s="54">
         <v>279043.9411</v>
       </c>
-      <c r="Z19" s="59">
+      <c r="Z19" s="54">
         <v>529808.57160000002</v>
       </c>
-      <c r="AA19" s="59">
+      <c r="AA19" s="54">
         <v>79782.003429999997</v>
       </c>
-      <c r="AB19" s="59">
+      <c r="AB19" s="54">
         <v>170272.0466</v>
       </c>
-      <c r="AC19" s="59">
+      <c r="AC19" s="54">
         <v>2695777.906</v>
       </c>
-      <c r="AD19" s="59">
+      <c r="AD19" s="54">
         <v>344304.7084</v>
       </c>
-      <c r="AE19" s="59">
+      <c r="AE19" s="54">
         <v>660865.01899999997</v>
       </c>
-      <c r="AF19" s="59">
+      <c r="AF19" s="54">
         <v>2223829.3470000001</v>
       </c>
-      <c r="AG19" s="59">
+      <c r="AG19" s="54">
         <v>2072405.2220000001</v>
       </c>
-      <c r="AH19" s="59">
+      <c r="AH19" s="54">
         <v>17385415.670000002</v>
       </c>
-      <c r="AI19" s="59">
+      <c r="AI19" s="54">
         <v>1267469.7609999999</v>
       </c>
-      <c r="AJ19" s="59">
+      <c r="AJ19" s="54">
         <v>21913220.879999999</v>
       </c>
-      <c r="AK19" s="59">
+      <c r="AK19" s="54">
         <v>2719083.9419999998</v>
       </c>
-      <c r="AL19" s="59">
+      <c r="AL19" s="54">
         <v>2672063.608</v>
       </c>
-      <c r="AM19" s="59">
+      <c r="AM19" s="54">
         <v>2478279.9360000002</v>
       </c>
-      <c r="AN19" s="59">
+      <c r="AN19" s="54">
         <v>8965511.9299999997</v>
       </c>
-      <c r="AO19" s="59">
+      <c r="AO19" s="54">
         <v>292238.19300000003</v>
       </c>
-      <c r="AP19" s="59">
+      <c r="AP19" s="54">
         <v>2662536.5490000001</v>
       </c>
-      <c r="AQ19" s="59">
+      <c r="AQ19" s="54">
         <v>7355960.5279999999</v>
       </c>
-      <c r="AR19" s="59">
+      <c r="AR19" s="54">
         <v>2086001.0020000001</v>
       </c>
-      <c r="AS19" s="59">
+      <c r="AS19" s="54">
         <v>2001006.821</v>
       </c>
-      <c r="AT19" s="59">
+      <c r="AT19" s="54">
         <v>4677007.7060000002</v>
       </c>
-      <c r="AU19" s="59">
+      <c r="AU19" s="54">
         <v>2283099.503</v>
       </c>
-      <c r="AV19" s="59">
+      <c r="AV19" s="54">
         <v>1733271.51</v>
       </c>
-      <c r="AW19" s="59">
+      <c r="AW19" s="54">
         <v>9086008.0920000002</v>
       </c>
       <c r="AX19" s="48">
@@ -5858,148 +4214,148 @@
       <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="54">
         <v>552090.20519999997</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="54">
         <v>735177.62410000002</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="54">
         <v>301680.06390000001</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="54">
         <v>22867.198069999999</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="54">
         <v>344047.32530000003</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="54">
         <v>10775092.75</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="54">
         <v>609857.91229999997</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="54">
         <v>63611.427920000002</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="54">
         <v>2804841.6910000001</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="54">
         <v>306547.91759999999</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="54">
         <v>3585178.0180000002</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M20" s="54">
         <v>675883.38199999998</v>
       </c>
-      <c r="N20" s="59">
+      <c r="N20" s="54">
         <v>481666.87319999997</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O20" s="54">
         <v>255748.8058</v>
       </c>
-      <c r="P20" s="59">
+      <c r="P20" s="54">
         <v>71964.381629999989</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="Q20" s="54">
         <v>4555826.108</v>
       </c>
-      <c r="R20" s="59">
+      <c r="R20" s="54">
         <v>63052.770700000001</v>
       </c>
-      <c r="S20" s="59">
+      <c r="S20" s="54">
         <v>102676.232</v>
       </c>
-      <c r="T20" s="59">
+      <c r="T20" s="54">
         <v>85603.358379999991</v>
       </c>
-      <c r="U20" s="59">
+      <c r="U20" s="54">
         <v>6066.7712780000002</v>
       </c>
-      <c r="V20" s="59">
+      <c r="V20" s="54">
         <v>788210.8933</v>
       </c>
-      <c r="W20" s="59">
+      <c r="W20" s="54">
         <v>1181860.871</v>
       </c>
-      <c r="X20" s="59">
+      <c r="X20" s="54">
         <v>1412250.1170000001</v>
       </c>
-      <c r="Y20" s="59">
+      <c r="Y20" s="54">
         <v>612052.26769999997</v>
       </c>
-      <c r="Z20" s="59">
+      <c r="Z20" s="54">
         <v>608928.17850000004</v>
       </c>
-      <c r="AA20" s="59">
+      <c r="AA20" s="54">
         <v>215719.73319999999</v>
       </c>
-      <c r="AB20" s="59">
+      <c r="AB20" s="54">
         <v>141897.3492</v>
       </c>
-      <c r="AC20" s="59">
+      <c r="AC20" s="54">
         <v>3267454.071</v>
       </c>
-      <c r="AD20" s="59">
+      <c r="AD20" s="54">
         <v>315412.40179999999</v>
       </c>
-      <c r="AE20" s="59">
+      <c r="AE20" s="54">
         <v>962247.74529999995</v>
       </c>
-      <c r="AF20" s="59">
+      <c r="AF20" s="54">
         <v>944412.26130000001</v>
       </c>
-      <c r="AG20" s="59">
+      <c r="AG20" s="54">
         <v>537628.43629999994</v>
       </c>
-      <c r="AH20" s="59">
+      <c r="AH20" s="54">
         <v>10211616.93</v>
       </c>
-      <c r="AI20" s="59">
+      <c r="AI20" s="54">
         <v>2160404.61</v>
       </c>
-      <c r="AJ20" s="59">
+      <c r="AJ20" s="54">
         <v>9831432.9470000006</v>
       </c>
-      <c r="AK20" s="59">
+      <c r="AK20" s="54">
         <v>2478342.3689999999</v>
       </c>
-      <c r="AL20" s="59">
+      <c r="AL20" s="54">
         <v>181634.63440000001</v>
       </c>
-      <c r="AM20" s="59">
+      <c r="AM20" s="54">
         <v>1725409.121</v>
       </c>
-      <c r="AN20" s="59">
+      <c r="AN20" s="54">
         <v>2119832.4070000001</v>
       </c>
-      <c r="AO20" s="59">
+      <c r="AO20" s="54">
         <v>1071953.7050000001</v>
       </c>
-      <c r="AP20" s="59">
+      <c r="AP20" s="54">
         <v>335895.07130000001</v>
       </c>
-      <c r="AQ20" s="59">
+      <c r="AQ20" s="54">
         <v>719152.7709</v>
       </c>
-      <c r="AR20" s="59">
+      <c r="AR20" s="54">
         <v>1085974.074</v>
       </c>
-      <c r="AS20" s="59">
+      <c r="AS20" s="54">
         <v>1620064.5049999999</v>
       </c>
-      <c r="AT20" s="59">
+      <c r="AT20" s="54">
         <v>1182816.6640000001</v>
       </c>
-      <c r="AU20" s="59">
+      <c r="AU20" s="54">
         <v>743393.98670000001</v>
       </c>
-      <c r="AV20" s="59">
+      <c r="AV20" s="54">
         <v>84118.748910000009</v>
       </c>
-      <c r="AW20" s="59">
+      <c r="AW20" s="54">
         <v>2123493.2680000002</v>
       </c>
       <c r="AX20" s="48">
@@ -6011,148 +4367,148 @@
       <c r="A21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="54">
         <v>3174097.2280000001</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="54">
         <v>4635041.8499999996</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="54">
         <v>1337006.23</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="54">
         <v>45251.04206</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="54">
         <v>3126065.6370000001</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="54">
         <v>36775575.350000001</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="54">
         <v>1167770.3770000001</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="54">
         <v>95847.035080000001</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="54">
         <v>9837617.943</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="54">
         <v>1520278.132</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="54">
         <v>16481120.800000001</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="54">
         <v>2834592.2259999998</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="54">
         <v>1549128.9539999999</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="54">
         <v>550690.65729999996</v>
       </c>
-      <c r="P21" s="59">
+      <c r="P21" s="54">
         <v>372095.3603</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="Q21" s="54">
         <v>20479585.73</v>
       </c>
-      <c r="R21" s="59">
+      <c r="R21" s="54">
         <v>204613.13099999999</v>
       </c>
-      <c r="S21" s="59">
+      <c r="S21" s="54">
         <v>818753.67749999999</v>
       </c>
-      <c r="T21" s="59">
+      <c r="T21" s="54">
         <v>290291.30290000001</v>
       </c>
-      <c r="U21" s="59">
+      <c r="U21" s="54">
         <v>95896.553010000003</v>
       </c>
-      <c r="V21" s="59">
+      <c r="V21" s="54">
         <v>8036579.5129999993</v>
       </c>
-      <c r="W21" s="59">
+      <c r="W21" s="54">
         <v>4855947.8650000002</v>
       </c>
-      <c r="X21" s="59">
+      <c r="X21" s="54">
         <v>1549114.8</v>
       </c>
-      <c r="Y21" s="59">
+      <c r="Y21" s="54">
         <v>2360691.7650000001</v>
       </c>
-      <c r="Z21" s="59">
+      <c r="Z21" s="54">
         <v>3724798.66</v>
       </c>
-      <c r="AA21" s="59">
+      <c r="AA21" s="54">
         <v>747501.27890000003</v>
       </c>
-      <c r="AB21" s="59">
+      <c r="AB21" s="54">
         <v>1738324.5970000001</v>
       </c>
-      <c r="AC21" s="59">
+      <c r="AC21" s="54">
         <v>14174200.1</v>
       </c>
-      <c r="AD21" s="59">
+      <c r="AD21" s="54">
         <v>2419034.41</v>
       </c>
-      <c r="AE21" s="59">
+      <c r="AE21" s="54">
         <v>2181117.5819999999</v>
       </c>
-      <c r="AF21" s="59">
+      <c r="AF21" s="54">
         <v>6364760.2710000006</v>
       </c>
-      <c r="AG21" s="59">
+      <c r="AG21" s="54">
         <v>11187003.869999999</v>
       </c>
-      <c r="AH21" s="59">
+      <c r="AH21" s="54">
         <v>81449454.129999995</v>
       </c>
-      <c r="AI21" s="59">
+      <c r="AI21" s="54">
         <v>9299752.5529999994</v>
       </c>
-      <c r="AJ21" s="59">
+      <c r="AJ21" s="54">
         <v>175428943.59999999</v>
       </c>
-      <c r="AK21" s="59">
+      <c r="AK21" s="54">
         <v>36279638.189999998</v>
       </c>
-      <c r="AL21" s="59">
+      <c r="AL21" s="54">
         <v>41234041.399999999</v>
       </c>
-      <c r="AM21" s="59">
+      <c r="AM21" s="54">
         <v>6640663.7439999999</v>
       </c>
-      <c r="AN21" s="59">
+      <c r="AN21" s="54">
         <v>35790471.359999999</v>
       </c>
-      <c r="AO21" s="59">
+      <c r="AO21" s="54">
         <v>4876368.6849999996</v>
       </c>
-      <c r="AP21" s="59">
+      <c r="AP21" s="54">
         <v>7492858.3329999996</v>
       </c>
-      <c r="AQ21" s="59">
+      <c r="AQ21" s="54">
         <v>32121894.879999999</v>
       </c>
-      <c r="AR21" s="59">
+      <c r="AR21" s="54">
         <v>20661550.059999999</v>
       </c>
-      <c r="AS21" s="59">
+      <c r="AS21" s="54">
         <v>15282275.25</v>
       </c>
-      <c r="AT21" s="59">
+      <c r="AT21" s="54">
         <v>20969870.699999999</v>
       </c>
-      <c r="AU21" s="59">
+      <c r="AU21" s="54">
         <v>21123576.59</v>
       </c>
-      <c r="AV21" s="59">
+      <c r="AV21" s="54">
         <v>4605096.9800000004</v>
       </c>
-      <c r="AW21" s="59">
+      <c r="AW21" s="54">
         <v>24107836.789999999</v>
       </c>
       <c r="AX21" s="48">
@@ -6164,148 +4520,148 @@
       <c r="A22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="54">
         <v>402.39361509999998</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="54">
         <v>133.3460216</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="54">
         <v>9.0298688610000006</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="54">
         <v>1.253132887</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="54">
         <v>245.4700091</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="54">
         <v>8367.7060529999999</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="54">
         <v>63.742175430000003</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="54">
         <v>6.6559481199999997</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="54">
         <v>227.70802470000001</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="54">
         <v>211.42433879999999</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="54">
         <v>483.84024069999998</v>
       </c>
-      <c r="M22" s="59">
+      <c r="M22" s="54">
         <v>44.729112280000002</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="54">
         <v>73.593252440000001</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="54">
         <v>18.433490200000001</v>
       </c>
-      <c r="P22" s="59">
+      <c r="P22" s="54">
         <v>27.130693579999999</v>
       </c>
-      <c r="Q22" s="59">
+      <c r="Q22" s="54">
         <v>390.93428649999998</v>
       </c>
-      <c r="R22" s="59">
+      <c r="R22" s="54">
         <v>9.3116404739999989</v>
       </c>
-      <c r="S22" s="59">
+      <c r="S22" s="54">
         <v>10.411218140000001</v>
       </c>
-      <c r="T22" s="59">
+      <c r="T22" s="54">
         <v>6.3554116350000003</v>
       </c>
-      <c r="U22" s="59">
+      <c r="U22" s="54">
         <v>2.0329055020000002</v>
       </c>
-      <c r="V22" s="59">
+      <c r="V22" s="54">
         <v>157.55714939999999</v>
       </c>
-      <c r="W22" s="59">
+      <c r="W22" s="54">
         <v>187.150826</v>
       </c>
-      <c r="X22" s="59">
+      <c r="X22" s="54">
         <v>63.703066079999999</v>
       </c>
-      <c r="Y22" s="59">
+      <c r="Y22" s="54">
         <v>46.23742283</v>
       </c>
-      <c r="Z22" s="59">
+      <c r="Z22" s="54">
         <v>266.59322150000003</v>
       </c>
-      <c r="AA22" s="59">
+      <c r="AA22" s="54">
         <v>22.28578984</v>
       </c>
-      <c r="AB22" s="59">
+      <c r="AB22" s="54">
         <v>36.109729569999999</v>
       </c>
-      <c r="AC22" s="59">
+      <c r="AC22" s="54">
         <v>516.35788839999998</v>
       </c>
-      <c r="AD22" s="59">
+      <c r="AD22" s="54">
         <v>84.741457560000001</v>
       </c>
-      <c r="AE22" s="59">
+      <c r="AE22" s="54">
         <v>1298.7803630000001</v>
       </c>
-      <c r="AF22" s="59">
+      <c r="AF22" s="54">
         <v>19.946663879999999</v>
       </c>
-      <c r="AG22" s="59">
+      <c r="AG22" s="54">
         <v>78.955647720000002</v>
       </c>
-      <c r="AH22" s="59">
+      <c r="AH22" s="54">
         <v>3518.2926299999999</v>
       </c>
-      <c r="AI22" s="59">
+      <c r="AI22" s="54">
         <v>1471.051136</v>
       </c>
-      <c r="AJ22" s="59">
+      <c r="AJ22" s="54">
         <v>1078.6061850000001</v>
       </c>
-      <c r="AK22" s="59">
+      <c r="AK22" s="54">
         <v>199.160685</v>
       </c>
-      <c r="AL22" s="59">
+      <c r="AL22" s="54">
         <v>269.87961230000002</v>
       </c>
-      <c r="AM22" s="59">
+      <c r="AM22" s="54">
         <v>313.60611870000002</v>
       </c>
-      <c r="AN22" s="59">
+      <c r="AN22" s="54">
         <v>1106.805656</v>
       </c>
-      <c r="AO22" s="59">
+      <c r="AO22" s="54">
         <v>59.545764669999997</v>
       </c>
-      <c r="AP22" s="59">
+      <c r="AP22" s="54">
         <v>146.06741170000001</v>
       </c>
-      <c r="AQ22" s="59">
+      <c r="AQ22" s="54">
         <v>437.14462229999998</v>
       </c>
-      <c r="AR22" s="59">
+      <c r="AR22" s="54">
         <v>119.41493060000001</v>
       </c>
-      <c r="AS22" s="59">
+      <c r="AS22" s="54">
         <v>850.48667779999994</v>
       </c>
-      <c r="AT22" s="59">
+      <c r="AT22" s="54">
         <v>1023.449254</v>
       </c>
-      <c r="AU22" s="59">
+      <c r="AU22" s="54">
         <v>171.70658449999999</v>
       </c>
-      <c r="AV22" s="59">
+      <c r="AV22" s="54">
         <v>55.968346009999998</v>
       </c>
-      <c r="AW22" s="59">
+      <c r="AW22" s="54">
         <v>1045.8346469999999</v>
       </c>
       <c r="AX22" s="48">
@@ -6317,148 +4673,148 @@
       <c r="A23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="54">
         <v>178211.6311</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="54">
         <v>172668.59419999999</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="54">
         <v>15618.97819</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="54">
         <v>1520.8644039999999</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="54">
         <v>58429.324189999999</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="54">
         <v>1222460.02</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="54">
         <v>74281.029250000007</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="54">
         <v>3482.5383149999998</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="54">
         <v>389421.22730000003</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="54">
         <v>76092.796119999999</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="54">
         <v>627657.20189999999</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23" s="54">
         <v>50138.863210000003</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="54">
         <v>56836.023679999998</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="54">
         <v>48072.395080000002</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="54">
         <v>19303.241190000001</v>
       </c>
-      <c r="Q23" s="59">
+      <c r="Q23" s="54">
         <v>743159.45719999995</v>
       </c>
-      <c r="R23" s="59">
+      <c r="R23" s="54">
         <v>6325.1623829999999</v>
       </c>
-      <c r="S23" s="59">
+      <c r="S23" s="54">
         <v>9627.5502940000006</v>
       </c>
-      <c r="T23" s="59">
+      <c r="T23" s="54">
         <v>5042.5107200000002</v>
       </c>
-      <c r="U23" s="59">
+      <c r="U23" s="54">
         <v>1756.7368630000001</v>
       </c>
-      <c r="V23" s="59">
+      <c r="V23" s="54">
         <v>296938.5931</v>
       </c>
-      <c r="W23" s="59">
+      <c r="W23" s="54">
         <v>158819.5019</v>
       </c>
-      <c r="X23" s="59">
+      <c r="X23" s="54">
         <v>46452.439739999987</v>
       </c>
-      <c r="Y23" s="59">
+      <c r="Y23" s="54">
         <v>145573.74669999999</v>
       </c>
-      <c r="Z23" s="59">
+      <c r="Z23" s="54">
         <v>129480.76790000001</v>
       </c>
-      <c r="AA23" s="59">
+      <c r="AA23" s="54">
         <v>64892.552679999993</v>
       </c>
-      <c r="AB23" s="59">
+      <c r="AB23" s="54">
         <v>33987.225400000003</v>
       </c>
-      <c r="AC23" s="59">
+      <c r="AC23" s="54">
         <v>435640.5</v>
       </c>
-      <c r="AD23" s="59">
+      <c r="AD23" s="54">
         <v>215709.7836</v>
       </c>
-      <c r="AE23" s="59">
+      <c r="AE23" s="54">
         <v>176957.8101</v>
       </c>
-      <c r="AF23" s="59">
+      <c r="AF23" s="54">
         <v>126933.0292</v>
       </c>
-      <c r="AG23" s="59">
+      <c r="AG23" s="54">
         <v>148258.55910000001</v>
       </c>
-      <c r="AH23" s="59">
+      <c r="AH23" s="54">
         <v>4668358.63</v>
       </c>
-      <c r="AI23" s="59">
+      <c r="AI23" s="54">
         <v>384451.1005</v>
       </c>
-      <c r="AJ23" s="59">
+      <c r="AJ23" s="54">
         <v>5286258.1310000001</v>
       </c>
-      <c r="AK23" s="59">
+      <c r="AK23" s="54">
         <v>946267.21039999998</v>
       </c>
-      <c r="AL23" s="59">
+      <c r="AL23" s="54">
         <v>732407.97270000004</v>
       </c>
-      <c r="AM23" s="59">
+      <c r="AM23" s="54">
         <v>564664.17700000003</v>
       </c>
-      <c r="AN23" s="59">
+      <c r="AN23" s="54">
         <v>697442.75919999997</v>
       </c>
-      <c r="AO23" s="59">
+      <c r="AO23" s="54">
         <v>127146.9446</v>
       </c>
-      <c r="AP23" s="59">
+      <c r="AP23" s="54">
         <v>275519.98599999998</v>
       </c>
-      <c r="AQ23" s="59">
+      <c r="AQ23" s="54">
         <v>1154350.622</v>
       </c>
-      <c r="AR23" s="59">
+      <c r="AR23" s="54">
         <v>765304.25430000003</v>
       </c>
-      <c r="AS23" s="59">
+      <c r="AS23" s="54">
         <v>465394.45919999998</v>
       </c>
-      <c r="AT23" s="59">
+      <c r="AT23" s="54">
         <v>370387.75750000001</v>
       </c>
-      <c r="AU23" s="59">
+      <c r="AU23" s="54">
         <v>296857.46460000001</v>
       </c>
-      <c r="AV23" s="59">
+      <c r="AV23" s="54">
         <v>267023.26189999998</v>
       </c>
-      <c r="AW23" s="59">
+      <c r="AW23" s="54">
         <v>1046641.078</v>
       </c>
       <c r="AX23" s="48">
@@ -6470,148 +4826,148 @@
       <c r="A24" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="54">
         <v>35086.743829999999</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="54">
         <v>87668.064070000008</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="54">
         <v>13287.5741</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="54">
         <v>95.308343780000001</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="54">
         <v>35494.301500000001</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="54">
         <v>333974.62949999998</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="54">
         <v>7189.8960519999991</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="54">
         <v>9381.4135870000009</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="54">
         <v>123572.9538</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="54">
         <v>23880.188569999998</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="54">
         <v>195416.96650000001</v>
       </c>
-      <c r="M24" s="59">
+      <c r="M24" s="54">
         <v>20883.088749999999</v>
       </c>
-      <c r="N24" s="59">
+      <c r="N24" s="54">
         <v>7758.6627250000001</v>
       </c>
-      <c r="O24" s="59">
+      <c r="O24" s="54">
         <v>1818.2177509999999</v>
       </c>
-      <c r="P24" s="59">
+      <c r="P24" s="54">
         <v>17666.440930000001</v>
       </c>
-      <c r="Q24" s="59">
+      <c r="Q24" s="54">
         <v>173836.73689999999</v>
       </c>
-      <c r="R24" s="59">
+      <c r="R24" s="54">
         <v>1154.3777669999999</v>
       </c>
-      <c r="S24" s="59">
+      <c r="S24" s="54">
         <v>962.82623890000002</v>
       </c>
-      <c r="T24" s="59">
+      <c r="T24" s="54">
         <v>523.42618070000003</v>
       </c>
-      <c r="U24" s="59">
+      <c r="U24" s="54">
         <v>155.33249570000001</v>
       </c>
-      <c r="V24" s="59">
+      <c r="V24" s="54">
         <v>102174.40670000001</v>
       </c>
-      <c r="W24" s="59">
+      <c r="W24" s="54">
         <v>62153.580529999992</v>
       </c>
-      <c r="X24" s="59">
+      <c r="X24" s="54">
         <v>13073.67722</v>
       </c>
-      <c r="Y24" s="59">
+      <c r="Y24" s="54">
         <v>8071.2947889999996</v>
       </c>
-      <c r="Z24" s="59">
+      <c r="Z24" s="54">
         <v>24733.716929999999</v>
       </c>
-      <c r="AA24" s="59">
+      <c r="AA24" s="54">
         <v>31888.405019999998</v>
       </c>
-      <c r="AB24" s="59">
+      <c r="AB24" s="54">
         <v>15728.00993</v>
       </c>
-      <c r="AC24" s="59">
+      <c r="AC24" s="54">
         <v>152647.4057</v>
       </c>
-      <c r="AD24" s="59">
+      <c r="AD24" s="54">
         <v>44350.412129999997</v>
       </c>
-      <c r="AE24" s="59">
+      <c r="AE24" s="54">
         <v>28283.53313</v>
       </c>
-      <c r="AF24" s="59">
+      <c r="AF24" s="54">
         <v>2283.5494979999999</v>
       </c>
-      <c r="AG24" s="59">
+      <c r="AG24" s="54">
         <v>26212.81309</v>
       </c>
-      <c r="AH24" s="59">
+      <c r="AH24" s="54">
         <v>1646614.2560000001</v>
       </c>
-      <c r="AI24" s="59">
+      <c r="AI24" s="54">
         <v>259717.2096</v>
       </c>
-      <c r="AJ24" s="59">
+      <c r="AJ24" s="54">
         <v>649314.24569999997</v>
       </c>
-      <c r="AK24" s="59">
+      <c r="AK24" s="54">
         <v>68652.945339999991</v>
       </c>
-      <c r="AL24" s="59">
+      <c r="AL24" s="54">
         <v>818082.5429</v>
       </c>
-      <c r="AM24" s="59">
+      <c r="AM24" s="54">
         <v>55815.744129999992</v>
       </c>
-      <c r="AN24" s="59">
+      <c r="AN24" s="54">
         <v>297593.55339999998</v>
       </c>
-      <c r="AO24" s="59">
+      <c r="AO24" s="54">
         <v>67938.901829999988</v>
       </c>
-      <c r="AP24" s="59">
+      <c r="AP24" s="54">
         <v>40651.161489999999</v>
       </c>
-      <c r="AQ24" s="59">
+      <c r="AQ24" s="54">
         <v>68657.492529999989</v>
       </c>
-      <c r="AR24" s="59">
+      <c r="AR24" s="54">
         <v>191003.56950000001</v>
       </c>
-      <c r="AS24" s="59">
+      <c r="AS24" s="54">
         <v>216913.66880000001</v>
       </c>
-      <c r="AT24" s="59">
+      <c r="AT24" s="54">
         <v>115566.72229999999</v>
       </c>
-      <c r="AU24" s="59">
+      <c r="AU24" s="54">
         <v>156591.9344</v>
       </c>
-      <c r="AV24" s="59">
+      <c r="AV24" s="54">
         <v>27341.510200000001</v>
       </c>
-      <c r="AW24" s="59">
+      <c r="AW24" s="54">
         <v>298967.91330000001</v>
       </c>
       <c r="AX24" s="48">
@@ -6623,148 +4979,148 @@
       <c r="A25" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="54">
         <v>51687.310169999997</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="54">
         <v>104022.4111</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="54">
         <v>16255.977580000001</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="54">
         <v>7515.9840690000001</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="54">
         <v>15219.945530000001</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="54">
         <v>440877.39700000011</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="54">
         <v>10868.76611</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="54">
         <v>1546.702018</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="54">
         <v>123111.2699</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="54">
         <v>63126.417930000003</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="54">
         <v>102304.1609</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="54">
         <v>9837.378596999999</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="54">
         <v>13949.848679999999</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="54">
         <v>5491.3171950000014</v>
       </c>
-      <c r="P25" s="59">
+      <c r="P25" s="54">
         <v>3203.954761</v>
       </c>
-      <c r="Q25" s="59">
+      <c r="Q25" s="54">
         <v>196579.42739999999</v>
       </c>
-      <c r="R25" s="59">
+      <c r="R25" s="54">
         <v>2045.608579</v>
       </c>
-      <c r="S25" s="59">
+      <c r="S25" s="54">
         <v>2485.4009850000002</v>
       </c>
-      <c r="T25" s="59">
+      <c r="T25" s="54">
         <v>1503.260998</v>
       </c>
-      <c r="U25" s="59">
+      <c r="U25" s="54">
         <v>412.68788510000002</v>
       </c>
-      <c r="V25" s="59">
+      <c r="V25" s="54">
         <v>50062.344599999997</v>
       </c>
-      <c r="W25" s="59">
+      <c r="W25" s="54">
         <v>96890.742800000007</v>
       </c>
-      <c r="X25" s="59">
+      <c r="X25" s="54">
         <v>13620.73652</v>
       </c>
-      <c r="Y25" s="59">
+      <c r="Y25" s="54">
         <v>11180.59843</v>
       </c>
-      <c r="Z25" s="59">
+      <c r="Z25" s="54">
         <v>65706.452160000001</v>
       </c>
-      <c r="AA25" s="59">
+      <c r="AA25" s="54">
         <v>4266.5403240000014</v>
       </c>
-      <c r="AB25" s="59">
+      <c r="AB25" s="54">
         <v>11060.648880000001</v>
       </c>
-      <c r="AC25" s="59">
+      <c r="AC25" s="54">
         <v>89207.199170000007</v>
       </c>
-      <c r="AD25" s="59">
+      <c r="AD25" s="54">
         <v>22731.77778</v>
       </c>
-      <c r="AE25" s="59">
+      <c r="AE25" s="54">
         <v>39617.846039999997</v>
       </c>
-      <c r="AF25" s="59">
+      <c r="AF25" s="54">
         <v>8109.8438910000004</v>
       </c>
-      <c r="AG25" s="59">
+      <c r="AG25" s="54">
         <v>34360.42757</v>
       </c>
-      <c r="AH25" s="59">
+      <c r="AH25" s="54">
         <v>618724.12509999995</v>
       </c>
-      <c r="AI25" s="59">
+      <c r="AI25" s="54">
         <v>127226.18090000001</v>
       </c>
-      <c r="AJ25" s="59">
+      <c r="AJ25" s="54">
         <v>1408797.1880000001</v>
       </c>
-      <c r="AK25" s="59">
+      <c r="AK25" s="54">
         <v>217315.95430000001</v>
       </c>
-      <c r="AL25" s="59">
+      <c r="AL25" s="54">
         <v>313325.78100000002</v>
       </c>
-      <c r="AM25" s="59">
+      <c r="AM25" s="54">
         <v>153347.1134</v>
       </c>
-      <c r="AN25" s="59">
+      <c r="AN25" s="54">
         <v>600422.07689999999</v>
       </c>
-      <c r="AO25" s="59">
+      <c r="AO25" s="54">
         <v>32009.27045</v>
       </c>
-      <c r="AP25" s="59">
+      <c r="AP25" s="54">
         <v>93704.159979999997</v>
       </c>
-      <c r="AQ25" s="59">
+      <c r="AQ25" s="54">
         <v>142179.59950000001</v>
       </c>
-      <c r="AR25" s="59">
+      <c r="AR25" s="54">
         <v>120020.03079999999</v>
       </c>
-      <c r="AS25" s="59">
+      <c r="AS25" s="54">
         <v>100618.42260000001</v>
       </c>
-      <c r="AT25" s="59">
+      <c r="AT25" s="54">
         <v>329690.1789</v>
       </c>
-      <c r="AU25" s="59">
+      <c r="AU25" s="54">
         <v>163747.09830000001</v>
       </c>
-      <c r="AV25" s="59">
+      <c r="AV25" s="54">
         <v>43985.18103</v>
       </c>
-      <c r="AW25" s="59">
+      <c r="AW25" s="54">
         <v>499448.67940000002</v>
       </c>
       <c r="AX25" s="48">
@@ -6776,148 +5132,148 @@
       <c r="A26" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="54">
         <v>47995.634239999999</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="54">
         <v>105257.25750000001</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="54">
         <v>14204.3485</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="54">
         <v>459.69739129999999</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="54">
         <v>99712.365810000003</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="54">
         <v>582120.42319999996</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="54">
         <v>120209.54150000001</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="54">
         <v>3637.5301800000002</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="54">
         <v>154674.45000000001</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="54">
         <v>212923.13039999999</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="54">
         <v>326870.82140000002</v>
       </c>
-      <c r="M26" s="59">
+      <c r="M26" s="54">
         <v>55667.316220000008</v>
       </c>
-      <c r="N26" s="59">
+      <c r="N26" s="54">
         <v>91544.459220000004</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="54">
         <v>10031.89071</v>
       </c>
-      <c r="P26" s="59">
+      <c r="P26" s="54">
         <v>16297.49401</v>
       </c>
-      <c r="Q26" s="59">
+      <c r="Q26" s="54">
         <v>198576.959</v>
       </c>
-      <c r="R26" s="59">
+      <c r="R26" s="54">
         <v>3872.786540999999</v>
       </c>
-      <c r="S26" s="59">
+      <c r="S26" s="54">
         <v>6980.4245480000009</v>
       </c>
-      <c r="T26" s="59">
+      <c r="T26" s="54">
         <v>4624.4528329999994</v>
       </c>
-      <c r="U26" s="59">
+      <c r="U26" s="54">
         <v>2933.8550289999998</v>
       </c>
-      <c r="V26" s="59">
+      <c r="V26" s="54">
         <v>107526.4786</v>
       </c>
-      <c r="W26" s="59">
+      <c r="W26" s="54">
         <v>124226.7944</v>
       </c>
-      <c r="X26" s="59">
+      <c r="X26" s="54">
         <v>66878.292449999994</v>
       </c>
-      <c r="Y26" s="59">
+      <c r="Y26" s="54">
         <v>84472.89258</v>
       </c>
-      <c r="Z26" s="59">
+      <c r="Z26" s="54">
         <v>99873.080390000003</v>
       </c>
-      <c r="AA26" s="59">
+      <c r="AA26" s="54">
         <v>86245.672500000001</v>
       </c>
-      <c r="AB26" s="59">
+      <c r="AB26" s="54">
         <v>65836.116179999997</v>
       </c>
-      <c r="AC26" s="59">
+      <c r="AC26" s="54">
         <v>280438.58279999997</v>
       </c>
-      <c r="AD26" s="59">
+      <c r="AD26" s="54">
         <v>81366.338889999999</v>
       </c>
-      <c r="AE26" s="59">
+      <c r="AE26" s="54">
         <v>49923.518759999999</v>
       </c>
-      <c r="AF26" s="59">
+      <c r="AF26" s="54">
         <v>119026.6247</v>
       </c>
-      <c r="AG26" s="59">
+      <c r="AG26" s="54">
         <v>507670.65289999999</v>
       </c>
-      <c r="AH26" s="59">
+      <c r="AH26" s="54">
         <v>1393076.8629999999</v>
       </c>
-      <c r="AI26" s="59">
+      <c r="AI26" s="54">
         <v>348231.67940000002</v>
       </c>
-      <c r="AJ26" s="59">
+      <c r="AJ26" s="54">
         <v>1628099.22</v>
       </c>
-      <c r="AK26" s="59">
+      <c r="AK26" s="54">
         <v>233628.15599999999</v>
       </c>
-      <c r="AL26" s="59">
+      <c r="AL26" s="54">
         <v>3594266.08</v>
       </c>
-      <c r="AM26" s="59">
+      <c r="AM26" s="54">
         <v>837688.76670000004</v>
       </c>
-      <c r="AN26" s="59">
+      <c r="AN26" s="54">
         <v>557464.56299999997</v>
       </c>
-      <c r="AO26" s="59">
+      <c r="AO26" s="54">
         <v>2968685.1060000001</v>
       </c>
-      <c r="AP26" s="59">
+      <c r="AP26" s="54">
         <v>1151200.55</v>
       </c>
-      <c r="AQ26" s="59">
+      <c r="AQ26" s="54">
         <v>734068.3713</v>
       </c>
-      <c r="AR26" s="59">
+      <c r="AR26" s="54">
         <v>989813.41339999996</v>
       </c>
-      <c r="AS26" s="59">
+      <c r="AS26" s="54">
         <v>319029.23979999998</v>
       </c>
-      <c r="AT26" s="59">
+      <c r="AT26" s="54">
         <v>215175.8561</v>
       </c>
-      <c r="AU26" s="59">
+      <c r="AU26" s="54">
         <v>348541.92580000003</v>
       </c>
-      <c r="AV26" s="59">
+      <c r="AV26" s="54">
         <v>230527.44399999999</v>
       </c>
-      <c r="AW26" s="59">
+      <c r="AW26" s="54">
         <v>1467191.3670000001</v>
       </c>
       <c r="AX26" s="48">
@@ -6929,148 +5285,148 @@
       <c r="A27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="54">
         <v>20073308.32</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="54">
         <v>16136186.51</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="54">
         <v>2125962.6359999999</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="54">
         <v>3347029.2489999998</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="54">
         <v>25867039.260000002</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="54">
         <v>197433242</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="54">
         <v>13978139.869999999</v>
       </c>
-      <c r="I27" s="59">
+      <c r="I27" s="54">
         <v>808375.68099999998</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="54">
         <v>63104518.350000001</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="54">
         <v>7451385.2079999996</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="54">
         <v>109650688.2</v>
       </c>
-      <c r="M27" s="59">
+      <c r="M27" s="54">
         <v>10332795.68</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="54">
         <v>3515025.9130000002</v>
       </c>
-      <c r="O27" s="59">
+      <c r="O27" s="54">
         <v>2379415.2740000002</v>
       </c>
-      <c r="P27" s="59">
+      <c r="P27" s="54">
         <v>3789877.5980000002</v>
       </c>
-      <c r="Q27" s="59">
+      <c r="Q27" s="54">
         <v>86910896.829999998</v>
       </c>
-      <c r="R27" s="59">
+      <c r="R27" s="54">
         <v>1751803.9779999999</v>
       </c>
-      <c r="S27" s="59">
+      <c r="S27" s="54">
         <v>150269.9669</v>
       </c>
-      <c r="T27" s="59">
+      <c r="T27" s="54">
         <v>900073.88840000005</v>
       </c>
-      <c r="U27" s="59">
+      <c r="U27" s="54">
         <v>483870.07939999999</v>
       </c>
-      <c r="V27" s="59">
+      <c r="V27" s="54">
         <v>19561685.25</v>
       </c>
-      <c r="W27" s="59">
+      <c r="W27" s="54">
         <v>33395217.739999998</v>
       </c>
-      <c r="X27" s="59">
+      <c r="X27" s="54">
         <v>21219897.120000001</v>
       </c>
-      <c r="Y27" s="59">
+      <c r="Y27" s="54">
         <v>18138629.530000001</v>
       </c>
-      <c r="Z27" s="59">
+      <c r="Z27" s="54">
         <v>18220273.07</v>
       </c>
-      <c r="AA27" s="59">
+      <c r="AA27" s="54">
         <v>1532516.6910000001</v>
       </c>
-      <c r="AB27" s="59">
+      <c r="AB27" s="54">
         <v>5149983.7280000001</v>
       </c>
-      <c r="AC27" s="59">
+      <c r="AC27" s="54">
         <v>89313582.680000007</v>
       </c>
-      <c r="AD27" s="59">
+      <c r="AD27" s="54">
         <v>9435612.7009999994</v>
       </c>
-      <c r="AE27" s="59">
+      <c r="AE27" s="54">
         <v>14993395.050000001</v>
       </c>
-      <c r="AF27" s="59">
+      <c r="AF27" s="54">
         <v>26171874.600000001</v>
       </c>
-      <c r="AG27" s="59">
+      <c r="AG27" s="54">
         <v>31936780.350000001</v>
       </c>
-      <c r="AH27" s="59">
+      <c r="AH27" s="54">
         <v>437473396.69999999</v>
       </c>
-      <c r="AI27" s="59">
+      <c r="AI27" s="54">
         <v>57658671.600000001</v>
       </c>
-      <c r="AJ27" s="59">
+      <c r="AJ27" s="54">
         <v>751265195.70000005</v>
       </c>
-      <c r="AK27" s="59">
+      <c r="AK27" s="54">
         <v>120338835.7</v>
       </c>
-      <c r="AL27" s="59">
+      <c r="AL27" s="54">
         <v>79859681.409999996</v>
       </c>
-      <c r="AM27" s="59">
+      <c r="AM27" s="54">
         <v>7356411.2670000009</v>
       </c>
-      <c r="AN27" s="59">
+      <c r="AN27" s="54">
         <v>165404827.19999999</v>
       </c>
-      <c r="AO27" s="59">
+      <c r="AO27" s="54">
         <v>10444372.390000001</v>
       </c>
-      <c r="AP27" s="59">
+      <c r="AP27" s="54">
         <v>44637756.770000003</v>
       </c>
-      <c r="AQ27" s="59">
+      <c r="AQ27" s="54">
         <v>134424794</v>
       </c>
-      <c r="AR27" s="59">
+      <c r="AR27" s="54">
         <v>74111371.810000002</v>
       </c>
-      <c r="AS27" s="59">
+      <c r="AS27" s="54">
         <v>25351293.289999999</v>
       </c>
-      <c r="AT27" s="59">
+      <c r="AT27" s="54">
         <v>127994618.09999999</v>
       </c>
-      <c r="AU27" s="59">
+      <c r="AU27" s="54">
         <v>64405201.710000001</v>
       </c>
-      <c r="AV27" s="59">
+      <c r="AV27" s="54">
         <v>98194398.269999996</v>
       </c>
-      <c r="AW27" s="59">
+      <c r="AW27" s="54">
         <v>418003137.5</v>
       </c>
       <c r="AX27" s="48">
@@ -7079,58 +5435,58 @@
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="58"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="58"/>
+      <c r="AO28" s="58"/>
+      <c r="AP28" s="58"/>
+      <c r="AQ28" s="58"/>
+      <c r="AR28" s="58"/>
+      <c r="AS28" s="58"/>
+      <c r="AT28" s="58"/>
+      <c r="AU28" s="58"/>
+      <c r="AV28" s="58"/>
+      <c r="AW28" s="58"/>
+      <c r="AX28" s="58"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="str">
@@ -9755,58 +8111,58 @@
       <c r="AX41" s="5"/>
     </row>
     <row r="42" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55"/>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
-      <c r="AT42" s="55"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
-      <c r="AW42" s="55"/>
-      <c r="AX42" s="55"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="57"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="57"/>
+      <c r="AO42" s="57"/>
+      <c r="AP42" s="57"/>
+      <c r="AQ42" s="57"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="57"/>
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="57"/>
+      <c r="AV42" s="57"/>
+      <c r="AW42" s="57"/>
+      <c r="AX42" s="57"/>
     </row>
     <row r="43" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
@@ -11023,4 +9379,1885 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122F672B-0918-437F-BC03-67C862FF8E52}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C3" s="37">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="37">
+        <v>2011</v>
+      </c>
+      <c r="E3" s="38">
+        <v>2010</v>
+      </c>
+      <c r="F3" s="37">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2010</v>
+      </c>
+      <c r="H3" s="37">
+        <v>2008</v>
+      </c>
+      <c r="I3" s="37">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="40">
+        <f>SUM(data_source_exio!B43:AW43)</f>
+        <v>1.3362726056195031</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="40">
+        <f>SUM(data_source_exio!B44:AW44)</f>
+        <v>9.5800039885469548E-2</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="40">
+        <f>SUM(data_source_exio!B45:AW45)</f>
+        <v>0.94447295684679344</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="40">
+        <f>SUM(data_source_exio!B46:AW46)</f>
+        <v>23.295412943085072</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="40">
+        <v>28.7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25.13</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="41">
+        <f>SUM(data_source_exio!B34:AW34)</f>
+        <v>0.87737004498988747</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="41">
+        <f>SUM(data_source_exio!B36:AW36)</f>
+        <v>2.4893390515546187E-2</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="41">
+        <f>SUM(data_source_exio!B38:AW38)</f>
+        <v>1.0559665909417613E-2</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="41">
+        <f>SUM(data_source_exio!B48:AW48)</f>
+        <v>3.1649855431941945E-2</v>
+      </c>
+      <c r="C12" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="41">
+        <f>SUM(data_source_exio!B47:AW47)</f>
+        <v>1.3121318536865474</v>
+      </c>
+      <c r="C13" s="40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="40">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="41">
+        <f>SUM(data_source_exio!C32:AW32)</f>
+        <v>9.5587635453902323E-2</v>
+      </c>
+      <c r="C14" s="40">
+        <v>0.13</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="43">
+        <f>(D5-$B$5)/$B$5</f>
+        <v>-0.89523095855497581</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="43">
+        <f t="shared" ref="D18" si="0">(D6-$B$6)/$B$6</f>
+        <v>1.0876818030462529</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="43">
+        <f t="shared" ref="D19" si="1">(D7-$B$7)/$B$7</f>
+        <v>5.8519866695379346E-3</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="43">
+        <f t="shared" ref="D20:E20" si="2">(D8-$B$8)/$B$8</f>
+        <v>0.23200220018075299</v>
+      </c>
+      <c r="E20" s="43">
+        <f t="shared" si="2"/>
+        <v>7.8753146011927608E-2</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="43">
+        <f>(C9-$B$9)/$B$9</f>
+        <v>-3.1195554425616334E-2</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" ref="E21:H21" si="3">(E9-$B$9)/$B$9</f>
+        <v>-9.9581750583808054E-2</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" si="3"/>
+        <v>0.36772392316383573</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="43">
+        <f t="shared" ref="C22:E22" si="4">(C10-$B$10)/$B$10</f>
+        <v>0.20513917062702569</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="43">
+        <f t="shared" si="4"/>
+        <v>0.20513917062702569</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="43">
+        <f>(G10-$B$10)/$B$10</f>
+        <v>-0.19657388624864949</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="43">
+        <f>(C11-$B$11)/$B$11</f>
+        <v>-5.3000342455766195E-2</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" ref="E23:F23" si="5">(E11-$B$11)/$B$11</f>
+        <v>-5.3000342455766195E-2</v>
+      </c>
+      <c r="F23" s="43">
+        <f t="shared" si="5"/>
+        <v>-5.3000342455766195E-2</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="43">
+        <f>(C12-$B$12)/$B$12</f>
+        <v>0.57978604697001435</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" ref="E24" si="6">(E12-$B$12)/$B$12</f>
+        <v>-5.2128371817991452E-2</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="43">
+        <f t="shared" ref="C25:I25" si="7">(C13-$B$13)/$B$13</f>
+        <v>-0.89330340574641343</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.90092459105024092</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.93140933226555145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="43">
+        <f>(C14-$B$14)/$B$14</f>
+        <v>0.36000853439557295</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" ref="E26:I26" si="8">(E14-$B$14)/$B$14</f>
+        <v>0.25539249328822111</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="8"/>
+        <v>-0.1630716711411859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7736FF86-1B1D-4FBD-8B3D-6A06C87126F9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F396A526-1C9A-4398-94FF-247B49BEB261}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{72724038-CA4D-49B8-943E-81B21C0AD984}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{E36F754C-6BFA-40BA-86ED-CD52C0882617}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{FCC7FA3D-8E68-45BA-8DF9-CA90ABFE71A1}"/>
+    <hyperlink ref="H2" r:id="rId6" xr:uid="{A035E7CD-CC18-45E1-9BE9-46DEAD5C766E}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{A40700CC-7652-4933-98C3-401366C4A056}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F7ECFB-BBF9-4C71-90EA-4916195C8E2B}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C3" s="37">
+        <v>2014</v>
+      </c>
+      <c r="D3" s="44">
+        <v>2011</v>
+      </c>
+      <c r="E3" s="38">
+        <v>2010</v>
+      </c>
+      <c r="F3" s="37">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="35">
+        <f>SUM(data_source_exio!B41:AW41)</f>
+        <v>25.671958545436841</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="10">
+        <v>29.3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>26.25</v>
+      </c>
+      <c r="F5" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="45">
+        <f>SUM(data_source_exio!B41:AC41)-data_source_exio!O41</f>
+        <v>2.6490734818103578</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="39">
+        <f>3.5-1.7</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="45">
+        <f>SUM(data_source_exio!B41:AC41)</f>
+        <v>2.6686224049862917</v>
+      </c>
+      <c r="C7" s="45">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="40">
+        <f>data_source_exio!B41</f>
+        <v>7.2770104292697355E-2</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0.11</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="40">
+        <f>data_source_exio!C41</f>
+        <v>8.2196318696433401E-2</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="40">
+        <f>data_source_exio!F41</f>
+        <v>6.0847203970137945E-2</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="40">
+        <f>data_source_exio!K41</f>
+        <v>7.0852095522572378E-2</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0.06</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="40">
+        <f>data_source_exio!J41</f>
+        <v>0.20061671251982963</v>
+      </c>
+      <c r="C12" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="40">
+        <f>data_source_exio!L41</f>
+        <v>0.28872649434985376</v>
+      </c>
+      <c r="C13" s="40">
+        <v>0.31</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="40">
+        <f>data_source_exio!G41</f>
+        <v>0.4353085741321564</v>
+      </c>
+      <c r="C14" s="40">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="40">
+        <f>data_source_exio!Q41</f>
+        <v>0.26146373949739332</v>
+      </c>
+      <c r="C15" s="40">
+        <v>0.22</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="43">
+        <f>(D5-$B$5)/$B$5</f>
+        <v>0.14132312687175322</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" ref="E17" si="0">(E5-$B$5)/$B$5</f>
+        <v>2.2516453255410289E-2</v>
+      </c>
+      <c r="F17" s="43">
+        <f>(F5-$B$5)/$B$5</f>
+        <v>1.2778201319644477E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="43">
+        <f t="shared" ref="F18" si="1">(F6-$B$6)/$B$6</f>
+        <v>-0.32051714972817857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="43">
+        <f>(C7-$B$7)/$B$7</f>
+        <v>-0.13813209553270817</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="43">
+        <f t="shared" ref="C20" si="2">(C8-$B$8)/$B$8</f>
+        <v>0.51160976157950555</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="43">
+        <f t="shared" ref="C21" si="3">(C9-$B$9)/$B$9</f>
+        <v>-0.27004030166373533</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="43">
+        <f>(C10-$B$10)/$B$10</f>
+        <v>0.31476871212129481</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="43">
+        <f t="shared" ref="C23" si="4">(C11-$B$11)/$B$11</f>
+        <v>-0.15316548427442164</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="43">
+        <f t="shared" ref="C24" si="5">(C12-$B$12)/$B$12</f>
+        <v>-0.25230556260274928</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="43">
+        <f t="shared" ref="C25" si="6">(C13-$B$13)/$B$13</f>
+        <v>7.3680476390119043E-2</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="43">
+        <f t="shared" ref="C26" si="7">(C14-$B$14)/$B$14</f>
+        <v>0.30941597264967324</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="43">
+        <f>(C15-$B$15)/$B$15</f>
+        <v>-0.15858313499645596</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{CC2DC926-7BE1-4447-8EFB-AA7D7470D938}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{58447263-CD58-4AC4-AC5D-53C1016A48CE}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{C55297CB-206D-4109-94A4-C1F1A79612D5}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{1CB54501-8AD2-4151-BB62-3B50A8481955}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA87B49-31AC-49DD-B625-07F9C287002A}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D3" s="37">
+        <v>2011</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="38">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="12">
+        <f>SUM(data_source_exio!B34:AW34)</f>
+        <v>0.87737004498988747</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.79</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="13">
+        <f>data_source_exio!AM34</f>
+        <v>5.0155662070130993E-3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>6.6568627200000278E-3</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="31">
+        <f>data_source_exio!AI34</f>
+        <v>6.0168215977828409E-3</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5.32021924500003E-3</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="13">
+        <f>data_source_exio!L34</f>
+        <v>7.713337996496249E-3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1.2130435391999954E-2</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="13">
+        <f>data_source_exio!AN34</f>
+        <v>1.4265299478070519E-2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5.2898021999999961E-2</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="13">
+        <f>data_source_exio!AC34</f>
+        <v>3.6104789970925395E-3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4.7716952739999307E-3</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="13">
+        <f>data_source_exio!AH34</f>
+        <v>3.2669104108050809E-2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2.9551659899999895E-2</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="43">
+        <f>(D6-$B$6)/$B$6</f>
+        <v>-3.1195554425616334E-2</v>
+      </c>
+      <c r="E14" s="43">
+        <f>(E6-$B$6)/$B$6</f>
+        <v>0.36772392316383573</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" ref="F14" si="0">(F6-$B$6)/$B$6</f>
+        <v>-9.9581750583808054E-2</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="43">
+        <f t="shared" ref="C15" si="1">(C7-$B$7)/$B$7</f>
+        <v>0.32724052384992114</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="43">
+        <f>(C8-$B$8)/$B$8</f>
+        <v>-0.11577580313159098</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="43">
+        <f t="shared" ref="C17" si="2">(C9-$B$9)/$B$9</f>
+        <v>0.57265705165651393</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="43">
+        <f>(C10-$B$10)/$B$10</f>
+        <v>2.7081606370281954</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="43">
+        <f t="shared" ref="C19" si="3">(C11-$B$11)/$B$11</f>
+        <v>0.32162388365712691</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="43">
+        <f t="shared" ref="C20" si="4">(C12-$B$12)/$B$12</f>
+        <v>-9.5424845375011877E-2</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0C49D8CC-8817-4889-9B94-95F7772588B5}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{A196BC63-2E18-47D4-B477-F70CD5D66B05}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{55B79707-15E1-4917-8E6B-B09AC9C42446}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{8091FDB0-7524-44E6-B9CC-B3EB13B643E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB836A7C-9CB2-4479-B980-8CE086D7713D}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1">
+        <v>163</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1">
+        <v>110</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{760294FF-B551-42D4-800F-EAE39FF8A1B9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{74A89826-44D0-4D99-8E96-5AA5E4110FA1}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{2CDCC077-5782-487F-98EC-01A4E23E452E}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{EB19DAF6-0176-4B30-8BD2-A53804BAE5D9}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{9FF8583C-C019-4E82-BA89-B530CDAD7740}"/>
+    <hyperlink ref="H2" r:id="rId6" xr:uid="{01084A8D-9048-436A-B1E6-38CC48A50CC2}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{6969E0F6-2231-4952-8DB7-B36370F92C7C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>
--- a/Data_validation.xlsx
+++ b/Data_validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaagu\surfdrive\thesis_per_chapter\chap04_asa\results\asa_supplementary_information\v_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaagu\surfdrive\thesis_per_chapter\chap04_asa\manuscript\review_3\v_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF7BFC-C3B2-4AB3-B8C2-F8031BA5FBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1FC338-2DED-46D9-A7CF-01A21FD1D683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="131">
   <si>
     <t>Source</t>
   </si>
@@ -414,8 +414,35 @@
     <t>EXIOBASE v3.3.18</t>
   </si>
   <si>
+    <t>Outflows from in-use stocks, in tonnes</t>
+  </si>
+  <si>
+    <t>Inflows to in-use stocks, in tonnes</t>
+  </si>
+  <si>
+    <t>Müller et al. (2011)</t>
+  </si>
+  <si>
+    <t>Number of countries and world regions</t>
+  </si>
+  <si>
+    <t>Number of sectors/industries</t>
+  </si>
+  <si>
+    <t>Number of material categories</t>
+  </si>
+  <si>
+    <t>Number of years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A table comparing data resolution of EXIOBASE and other studies with net addtions to in-use stocks </t>
+  </si>
+  <si>
+    <t>data_resolution</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Merciai, S., Rodrigues, J.F.D &amp; Tukker, A. (2020.) Global distribution of material inflows to in-use stocks in 2011 and its implications for a circularity transition. </t>
+      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Merciai, S., Rodrigues, J.F.D &amp; Tukker, A. (2021) Global distribution of material inflows to in-use stocks in 2011 and its implications for a circularity transition. </t>
     </r>
     <r>
       <rPr>
@@ -427,36 +454,6 @@
       </rPr>
       <t xml:space="preserve">Journal of Industrial Ecology. </t>
     </r>
-  </si>
-  <si>
-    <t>Outflows from in-use stocks, in tonnes</t>
-  </si>
-  <si>
-    <t>Inflows to in-use stocks, in tonnes</t>
-  </si>
-  <si>
-    <t>Müller et al. (2011)</t>
-  </si>
-  <si>
-    <t>Number of countries and world regions</t>
-  </si>
-  <si>
-    <t>Number of sectors/industries</t>
-  </si>
-  <si>
-    <t>Number of material categories</t>
-  </si>
-  <si>
-    <t>Number of years</t>
-  </si>
-  <si>
-    <t>26/11/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A table comparing data resolution of EXIOBASE and other studies with net addtions to in-use stocks </t>
-  </si>
-  <si>
-    <t>data_resolution</t>
   </si>
 </sst>
 </file>
@@ -776,6 +773,12 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -790,12 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1206,7 +1203,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,54 +1260,54 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
@@ -1337,8 +1334,8 @@
         <v>106</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="16" t="s">
-        <v>129</v>
+      <c r="C12" s="16">
+        <v>44383</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1430,13 +1427,13 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1505,58 +1502,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
+      <c r="A1" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
@@ -3546,7 +3543,7 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -5435,58 +5432,58 @@
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="60"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="60"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="60"/>
+      <c r="AQ28" s="60"/>
+      <c r="AR28" s="60"/>
+      <c r="AS28" s="60"/>
+      <c r="AT28" s="60"/>
+      <c r="AU28" s="60"/>
+      <c r="AV28" s="60"/>
+      <c r="AW28" s="60"/>
+      <c r="AX28" s="60"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="str">
@@ -8111,58 +8108,58 @@
       <c r="AX41" s="5"/>
     </row>
     <row r="42" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="57"/>
-      <c r="AI42" s="57"/>
-      <c r="AJ42" s="57"/>
-      <c r="AK42" s="57"/>
-      <c r="AL42" s="57"/>
-      <c r="AM42" s="57"/>
-      <c r="AN42" s="57"/>
-      <c r="AO42" s="57"/>
-      <c r="AP42" s="57"/>
-      <c r="AQ42" s="57"/>
-      <c r="AR42" s="57"/>
-      <c r="AS42" s="57"/>
-      <c r="AT42" s="57"/>
-      <c r="AU42" s="57"/>
-      <c r="AV42" s="57"/>
-      <c r="AW42" s="57"/>
-      <c r="AX42" s="57"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="59"/>
+      <c r="AT42" s="59"/>
+      <c r="AU42" s="59"/>
+      <c r="AV42" s="59"/>
+      <c r="AW42" s="59"/>
+      <c r="AX42" s="59"/>
     </row>
     <row r="43" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
@@ -10708,7 +10705,7 @@
         <v>120</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>88</v>
@@ -11109,31 +11106,31 @@
       <c r="B2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="56" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>48</v>
@@ -11162,7 +11159,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -11191,7 +11188,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1">
         <v>163</v>
@@ -11220,7 +11217,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
